--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -132,193 +132,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="48">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -465,6 +283,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -605,6 +451,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -613,13 +466,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -901,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CX11" sqref="CX11"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CC15" sqref="CC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9963,31 +9809,31 @@
         <v>34</v>
       </c>
       <c r="BV19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BW19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BZ19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CA19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CB19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CD19" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="CE19" s="1">
         <v>2</v>
@@ -12711,76 +12557,76 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>36</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12937,13 +12783,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{019D7788-A493-4ACE-9310-49E7E64FAE70}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACAB3D9-CD6D-41A8-92B0-BECD36C434A8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8D55D8D-77D2-44F1-882A-E0C5B7C61F9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11747042-9A79-4DDF-8F5C-7231B507DBD7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6019ECD1-7606-4183-BC53-E8887ACBB674}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2DD64CE-D3CA-4DF4-9D14-CB9974F69E5C}"/>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -132,11 +132,165 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -283,7 +437,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -747,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CC15" sqref="CC15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BN20" sqref="BN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,9 +913,7 @@
     <col min="35" max="40" width="3.5" bestFit="1" customWidth="1"/>
     <col min="42" max="43" width="3.5" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="64" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="66" width="3.5" bestFit="1" customWidth="1"/>
     <col min="68" max="82" width="3.5" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="2.625" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="2.625" bestFit="1" customWidth="1"/>
@@ -3325,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1">
         <v>0</v>
@@ -3815,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -5772,19 +5924,19 @@
         <v>0</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM11" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN11" s="1">
         <v>0</v>
@@ -6262,19 +6414,19 @@
         <v>0</v>
       </c>
       <c r="AI12" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM12" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AN12" s="1">
         <v>0</v>
@@ -7242,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -8712,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>0</v>
@@ -9692,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ19" s="1">
         <v>0</v>
@@ -10251,7 +10403,7 @@
         <v>30</v>
       </c>
       <c r="BF20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BG20" s="1">
         <v>0</v>
@@ -10272,7 +10424,7 @@
         <v>30</v>
       </c>
       <c r="BM20" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BN20" s="1">
         <v>0</v>
@@ -11162,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>0</v>
@@ -12142,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ24" s="1">
         <v>0</v>
@@ -12556,78 +12708,149 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+  <conditionalFormatting sqref="A25:XFD1048576 A1:AH24 AN1:XFD24">
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="38" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="41" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI1:AM24">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+      <formula>33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+      <formula>32</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+      <formula>29</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+      <formula>28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+      <formula>27</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+      <formula>26</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12783,13 +13006,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACAB3D9-CD6D-41A8-92B0-BECD36C434A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{030C6D24-B238-45E7-94E2-240E6A647A2D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11747042-9A79-4DDF-8F5C-7231B507DBD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1447B2F2-EA61-4C9B-B66E-E89100BF7552}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2DD64CE-D3CA-4DF4-9D14-CB9974F69E5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53AA502B-FF2F-4123-B900-E984DD4A29E9}"/>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9555" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -112,14 +103,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -132,7 +120,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
@@ -437,7 +425,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -459,167 +447,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -899,28 +726,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JF26"/>
+  <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BN20" sqref="BN20"/>
+    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DH12" sqref="DH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="66" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="82" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="2.625" bestFit="1" customWidth="1"/>
-    <col min="95" max="111" width="3.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1248,169 +1062,14 @@
       <c r="DE1" s="1">
         <v>0</v>
       </c>
-      <c r="DF1" s="3">
+      <c r="DF1" s="2">
         <v>0</v>
       </c>
       <c r="DG1" s="1">
         <v>0</v>
       </c>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
-      <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
-      <c r="EH1" s="2"/>
-      <c r="EI1" s="2"/>
-      <c r="EJ1" s="2"/>
-      <c r="EK1" s="2"/>
-      <c r="EL1" s="2"/>
-      <c r="EM1" s="2"/>
-      <c r="EN1" s="2"/>
-      <c r="EO1" s="2"/>
-      <c r="EP1" s="2"/>
-      <c r="EQ1" s="2"/>
-      <c r="ER1" s="2"/>
-      <c r="ES1" s="2"/>
-      <c r="ET1" s="2"/>
-      <c r="EU1" s="2"/>
-      <c r="EV1" s="2"/>
-      <c r="EW1" s="2"/>
-      <c r="EX1" s="2"/>
-      <c r="EY1" s="2"/>
-      <c r="EZ1" s="2"/>
-      <c r="FA1" s="2"/>
-      <c r="FB1" s="2"/>
-      <c r="FC1" s="2"/>
-      <c r="FD1" s="2"/>
-      <c r="FE1" s="2"/>
-      <c r="FF1" s="2"/>
-      <c r="FG1" s="2"/>
-      <c r="FH1" s="2"/>
-      <c r="FI1" s="2"/>
-      <c r="FJ1" s="2"/>
-      <c r="FK1" s="2"/>
-      <c r="FL1" s="2"/>
-      <c r="FM1" s="2"/>
-      <c r="FN1" s="2"/>
-      <c r="FO1" s="2"/>
-      <c r="FP1" s="2"/>
-      <c r="FQ1" s="2"/>
-      <c r="FR1" s="2"/>
-      <c r="FS1" s="2"/>
-      <c r="FT1" s="2"/>
-      <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
-      <c r="FW1" s="2"/>
-      <c r="FX1" s="2"/>
-      <c r="FY1" s="2"/>
-      <c r="FZ1" s="2"/>
-      <c r="GA1" s="2"/>
-      <c r="GB1" s="2"/>
-      <c r="GC1" s="2"/>
-      <c r="GD1" s="2"/>
-      <c r="GE1" s="2"/>
-      <c r="GF1" s="2"/>
-      <c r="GG1" s="2"/>
-      <c r="GH1" s="2"/>
-      <c r="GI1" s="2"/>
-      <c r="GJ1" s="2"/>
-      <c r="GK1" s="2"/>
-      <c r="GL1" s="2"/>
-      <c r="GM1" s="2"/>
-      <c r="GN1" s="2"/>
-      <c r="GO1" s="2"/>
-      <c r="GP1" s="2"/>
-      <c r="GQ1" s="2"/>
-      <c r="GR1" s="2"/>
-      <c r="GS1" s="2"/>
-      <c r="GT1" s="2"/>
-      <c r="GU1" s="2"/>
-      <c r="GV1" s="2"/>
-      <c r="GW1" s="2"/>
-      <c r="GX1" s="2"/>
-      <c r="GY1" s="2"/>
-      <c r="GZ1" s="2"/>
-      <c r="HA1" s="2"/>
-      <c r="HB1" s="2"/>
-      <c r="HC1" s="2"/>
-      <c r="HD1" s="2"/>
-      <c r="HE1" s="2"/>
-      <c r="HF1" s="2"/>
-      <c r="HG1" s="2"/>
-      <c r="HH1" s="2"/>
-      <c r="HI1" s="2"/>
-      <c r="HJ1" s="2"/>
-      <c r="HK1" s="2"/>
-      <c r="HL1" s="2"/>
-      <c r="HM1" s="2"/>
-      <c r="HN1" s="2"/>
-      <c r="HO1" s="2"/>
-      <c r="HP1" s="2"/>
-      <c r="HQ1" s="2"/>
-      <c r="HR1" s="2"/>
-      <c r="HS1" s="2"/>
-      <c r="HT1" s="2"/>
-      <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
-      <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
-      <c r="HZ1" s="2"/>
-      <c r="IA1" s="2"/>
-      <c r="IB1" s="2"/>
-      <c r="IC1" s="2"/>
-      <c r="ID1" s="2"/>
-      <c r="IE1" s="2"/>
-      <c r="IF1" s="2"/>
-      <c r="IG1" s="2"/>
-      <c r="IH1" s="2"/>
-      <c r="II1" s="2"/>
-      <c r="IJ1" s="2"/>
-      <c r="IK1" s="2"/>
-      <c r="IL1" s="2"/>
-      <c r="IM1" s="2"/>
-      <c r="IN1" s="2"/>
-      <c r="IO1" s="2"/>
-      <c r="IP1" s="2"/>
-      <c r="IQ1" s="2"/>
-      <c r="IR1" s="2"/>
-      <c r="IS1" s="2"/>
-      <c r="IT1" s="2"/>
-      <c r="IU1" s="2"/>
-      <c r="IV1" s="2"/>
-      <c r="IW1" s="2"/>
-      <c r="IX1" s="2"/>
-      <c r="IY1" s="2"/>
-      <c r="IZ1" s="2"/>
-      <c r="JA1" s="2"/>
-      <c r="JB1" s="2"/>
-      <c r="JC1" s="2"/>
-      <c r="JD1" s="2"/>
-      <c r="JE1" s="2"/>
-      <c r="JF1" s="2"/>
     </row>
-    <row r="2" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1738,169 +1397,14 @@
       <c r="DE2" s="1">
         <v>0</v>
       </c>
-      <c r="DF2" s="3">
+      <c r="DF2" s="2">
         <v>0</v>
       </c>
       <c r="DG2" s="1">
         <v>0</v>
       </c>
-      <c r="DH2" s="2"/>
-      <c r="DI2" s="2"/>
-      <c r="DJ2" s="2"/>
-      <c r="DK2" s="2"/>
-      <c r="DL2" s="2"/>
-      <c r="DM2" s="2"/>
-      <c r="DN2" s="2"/>
-      <c r="DO2" s="2"/>
-      <c r="DP2" s="2"/>
-      <c r="DQ2" s="2"/>
-      <c r="DR2" s="2"/>
-      <c r="DS2" s="2"/>
-      <c r="DT2" s="2"/>
-      <c r="DU2" s="2"/>
-      <c r="DV2" s="2"/>
-      <c r="DW2" s="2"/>
-      <c r="DX2" s="2"/>
-      <c r="DY2" s="2"/>
-      <c r="DZ2" s="2"/>
-      <c r="EA2" s="2"/>
-      <c r="EB2" s="2"/>
-      <c r="EC2" s="2"/>
-      <c r="ED2" s="2"/>
-      <c r="EE2" s="2"/>
-      <c r="EF2" s="2"/>
-      <c r="EG2" s="2"/>
-      <c r="EH2" s="2"/>
-      <c r="EI2" s="2"/>
-      <c r="EJ2" s="2"/>
-      <c r="EK2" s="2"/>
-      <c r="EL2" s="2"/>
-      <c r="EM2" s="2"/>
-      <c r="EN2" s="2"/>
-      <c r="EO2" s="2"/>
-      <c r="EP2" s="2"/>
-      <c r="EQ2" s="2"/>
-      <c r="ER2" s="2"/>
-      <c r="ES2" s="2"/>
-      <c r="ET2" s="2"/>
-      <c r="EU2" s="2"/>
-      <c r="EV2" s="2"/>
-      <c r="EW2" s="2"/>
-      <c r="EX2" s="2"/>
-      <c r="EY2" s="2"/>
-      <c r="EZ2" s="2"/>
-      <c r="FA2" s="2"/>
-      <c r="FB2" s="2"/>
-      <c r="FC2" s="2"/>
-      <c r="FD2" s="2"/>
-      <c r="FE2" s="2"/>
-      <c r="FF2" s="2"/>
-      <c r="FG2" s="2"/>
-      <c r="FH2" s="2"/>
-      <c r="FI2" s="2"/>
-      <c r="FJ2" s="2"/>
-      <c r="FK2" s="2"/>
-      <c r="FL2" s="2"/>
-      <c r="FM2" s="2"/>
-      <c r="FN2" s="2"/>
-      <c r="FO2" s="2"/>
-      <c r="FP2" s="2"/>
-      <c r="FQ2" s="2"/>
-      <c r="FR2" s="2"/>
-      <c r="FS2" s="2"/>
-      <c r="FT2" s="2"/>
-      <c r="FU2" s="2"/>
-      <c r="FV2" s="2"/>
-      <c r="FW2" s="2"/>
-      <c r="FX2" s="2"/>
-      <c r="FY2" s="2"/>
-      <c r="FZ2" s="2"/>
-      <c r="GA2" s="2"/>
-      <c r="GB2" s="2"/>
-      <c r="GC2" s="2"/>
-      <c r="GD2" s="2"/>
-      <c r="GE2" s="2"/>
-      <c r="GF2" s="2"/>
-      <c r="GG2" s="2"/>
-      <c r="GH2" s="2"/>
-      <c r="GI2" s="2"/>
-      <c r="GJ2" s="2"/>
-      <c r="GK2" s="2"/>
-      <c r="GL2" s="2"/>
-      <c r="GM2" s="2"/>
-      <c r="GN2" s="2"/>
-      <c r="GO2" s="2"/>
-      <c r="GP2" s="2"/>
-      <c r="GQ2" s="2"/>
-      <c r="GR2" s="2"/>
-      <c r="GS2" s="2"/>
-      <c r="GT2" s="2"/>
-      <c r="GU2" s="2"/>
-      <c r="GV2" s="2"/>
-      <c r="GW2" s="2"/>
-      <c r="GX2" s="2"/>
-      <c r="GY2" s="2"/>
-      <c r="GZ2" s="2"/>
-      <c r="HA2" s="2"/>
-      <c r="HB2" s="2"/>
-      <c r="HC2" s="2"/>
-      <c r="HD2" s="2"/>
-      <c r="HE2" s="2"/>
-      <c r="HF2" s="2"/>
-      <c r="HG2" s="2"/>
-      <c r="HH2" s="2"/>
-      <c r="HI2" s="2"/>
-      <c r="HJ2" s="2"/>
-      <c r="HK2" s="2"/>
-      <c r="HL2" s="2"/>
-      <c r="HM2" s="2"/>
-      <c r="HN2" s="2"/>
-      <c r="HO2" s="2"/>
-      <c r="HP2" s="2"/>
-      <c r="HQ2" s="2"/>
-      <c r="HR2" s="2"/>
-      <c r="HS2" s="2"/>
-      <c r="HT2" s="2"/>
-      <c r="HU2" s="2"/>
-      <c r="HV2" s="2"/>
-      <c r="HW2" s="2"/>
-      <c r="HX2" s="2"/>
-      <c r="HY2" s="2"/>
-      <c r="HZ2" s="2"/>
-      <c r="IA2" s="2"/>
-      <c r="IB2" s="2"/>
-      <c r="IC2" s="2"/>
-      <c r="ID2" s="2"/>
-      <c r="IE2" s="2"/>
-      <c r="IF2" s="2"/>
-      <c r="IG2" s="2"/>
-      <c r="IH2" s="2"/>
-      <c r="II2" s="2"/>
-      <c r="IJ2" s="2"/>
-      <c r="IK2" s="2"/>
-      <c r="IL2" s="2"/>
-      <c r="IM2" s="2"/>
-      <c r="IN2" s="2"/>
-      <c r="IO2" s="2"/>
-      <c r="IP2" s="2"/>
-      <c r="IQ2" s="2"/>
-      <c r="IR2" s="2"/>
-      <c r="IS2" s="2"/>
-      <c r="IT2" s="2"/>
-      <c r="IU2" s="2"/>
-      <c r="IV2" s="2"/>
-      <c r="IW2" s="2"/>
-      <c r="IX2" s="2"/>
-      <c r="IY2" s="2"/>
-      <c r="IZ2" s="2"/>
-      <c r="JA2" s="2"/>
-      <c r="JB2" s="2"/>
-      <c r="JC2" s="2"/>
-      <c r="JD2" s="2"/>
-      <c r="JE2" s="2"/>
-      <c r="JF2" s="2"/>
     </row>
-    <row r="3" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -2228,169 +1732,14 @@
       <c r="DE3" s="1">
         <v>0</v>
       </c>
-      <c r="DF3" s="3">
+      <c r="DF3" s="2">
         <v>0</v>
       </c>
       <c r="DG3" s="1">
         <v>0</v>
       </c>
-      <c r="DH3" s="2"/>
-      <c r="DI3" s="2"/>
-      <c r="DJ3" s="2"/>
-      <c r="DK3" s="2"/>
-      <c r="DL3" s="2"/>
-      <c r="DM3" s="2"/>
-      <c r="DN3" s="2"/>
-      <c r="DO3" s="2"/>
-      <c r="DP3" s="2"/>
-      <c r="DQ3" s="2"/>
-      <c r="DR3" s="2"/>
-      <c r="DS3" s="2"/>
-      <c r="DT3" s="2"/>
-      <c r="DU3" s="2"/>
-      <c r="DV3" s="2"/>
-      <c r="DW3" s="2"/>
-      <c r="DX3" s="2"/>
-      <c r="DY3" s="2"/>
-      <c r="DZ3" s="2"/>
-      <c r="EA3" s="2"/>
-      <c r="EB3" s="2"/>
-      <c r="EC3" s="2"/>
-      <c r="ED3" s="2"/>
-      <c r="EE3" s="2"/>
-      <c r="EF3" s="2"/>
-      <c r="EG3" s="2"/>
-      <c r="EH3" s="2"/>
-      <c r="EI3" s="2"/>
-      <c r="EJ3" s="2"/>
-      <c r="EK3" s="2"/>
-      <c r="EL3" s="2"/>
-      <c r="EM3" s="2"/>
-      <c r="EN3" s="2"/>
-      <c r="EO3" s="2"/>
-      <c r="EP3" s="2"/>
-      <c r="EQ3" s="2"/>
-      <c r="ER3" s="2"/>
-      <c r="ES3" s="2"/>
-      <c r="ET3" s="2"/>
-      <c r="EU3" s="2"/>
-      <c r="EV3" s="2"/>
-      <c r="EW3" s="2"/>
-      <c r="EX3" s="2"/>
-      <c r="EY3" s="2"/>
-      <c r="EZ3" s="2"/>
-      <c r="FA3" s="2"/>
-      <c r="FB3" s="2"/>
-      <c r="FC3" s="2"/>
-      <c r="FD3" s="2"/>
-      <c r="FE3" s="2"/>
-      <c r="FF3" s="2"/>
-      <c r="FG3" s="2"/>
-      <c r="FH3" s="2"/>
-      <c r="FI3" s="2"/>
-      <c r="FJ3" s="2"/>
-      <c r="FK3" s="2"/>
-      <c r="FL3" s="2"/>
-      <c r="FM3" s="2"/>
-      <c r="FN3" s="2"/>
-      <c r="FO3" s="2"/>
-      <c r="FP3" s="2"/>
-      <c r="FQ3" s="2"/>
-      <c r="FR3" s="2"/>
-      <c r="FS3" s="2"/>
-      <c r="FT3" s="2"/>
-      <c r="FU3" s="2"/>
-      <c r="FV3" s="2"/>
-      <c r="FW3" s="2"/>
-      <c r="FX3" s="2"/>
-      <c r="FY3" s="2"/>
-      <c r="FZ3" s="2"/>
-      <c r="GA3" s="2"/>
-      <c r="GB3" s="2"/>
-      <c r="GC3" s="2"/>
-      <c r="GD3" s="2"/>
-      <c r="GE3" s="2"/>
-      <c r="GF3" s="2"/>
-      <c r="GG3" s="2"/>
-      <c r="GH3" s="2"/>
-      <c r="GI3" s="2"/>
-      <c r="GJ3" s="2"/>
-      <c r="GK3" s="2"/>
-      <c r="GL3" s="2"/>
-      <c r="GM3" s="2"/>
-      <c r="GN3" s="2"/>
-      <c r="GO3" s="2"/>
-      <c r="GP3" s="2"/>
-      <c r="GQ3" s="2"/>
-      <c r="GR3" s="2"/>
-      <c r="GS3" s="2"/>
-      <c r="GT3" s="2"/>
-      <c r="GU3" s="2"/>
-      <c r="GV3" s="2"/>
-      <c r="GW3" s="2"/>
-      <c r="GX3" s="2"/>
-      <c r="GY3" s="2"/>
-      <c r="GZ3" s="2"/>
-      <c r="HA3" s="2"/>
-      <c r="HB3" s="2"/>
-      <c r="HC3" s="2"/>
-      <c r="HD3" s="2"/>
-      <c r="HE3" s="2"/>
-      <c r="HF3" s="2"/>
-      <c r="HG3" s="2"/>
-      <c r="HH3" s="2"/>
-      <c r="HI3" s="2"/>
-      <c r="HJ3" s="2"/>
-      <c r="HK3" s="2"/>
-      <c r="HL3" s="2"/>
-      <c r="HM3" s="2"/>
-      <c r="HN3" s="2"/>
-      <c r="HO3" s="2"/>
-      <c r="HP3" s="2"/>
-      <c r="HQ3" s="2"/>
-      <c r="HR3" s="2"/>
-      <c r="HS3" s="2"/>
-      <c r="HT3" s="2"/>
-      <c r="HU3" s="2"/>
-      <c r="HV3" s="2"/>
-      <c r="HW3" s="2"/>
-      <c r="HX3" s="2"/>
-      <c r="HY3" s="2"/>
-      <c r="HZ3" s="2"/>
-      <c r="IA3" s="2"/>
-      <c r="IB3" s="2"/>
-      <c r="IC3" s="2"/>
-      <c r="ID3" s="2"/>
-      <c r="IE3" s="2"/>
-      <c r="IF3" s="2"/>
-      <c r="IG3" s="2"/>
-      <c r="IH3" s="2"/>
-      <c r="II3" s="2"/>
-      <c r="IJ3" s="2"/>
-      <c r="IK3" s="2"/>
-      <c r="IL3" s="2"/>
-      <c r="IM3" s="2"/>
-      <c r="IN3" s="2"/>
-      <c r="IO3" s="2"/>
-      <c r="IP3" s="2"/>
-      <c r="IQ3" s="2"/>
-      <c r="IR3" s="2"/>
-      <c r="IS3" s="2"/>
-      <c r="IT3" s="2"/>
-      <c r="IU3" s="2"/>
-      <c r="IV3" s="2"/>
-      <c r="IW3" s="2"/>
-      <c r="IX3" s="2"/>
-      <c r="IY3" s="2"/>
-      <c r="IZ3" s="2"/>
-      <c r="JA3" s="2"/>
-      <c r="JB3" s="2"/>
-      <c r="JC3" s="2"/>
-      <c r="JD3" s="2"/>
-      <c r="JE3" s="2"/>
-      <c r="JF3" s="2"/>
     </row>
-    <row r="4" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -2718,169 +2067,14 @@
       <c r="DE4" s="1">
         <v>0</v>
       </c>
-      <c r="DF4" s="3">
+      <c r="DF4" s="2">
         <v>0</v>
       </c>
       <c r="DG4" s="1">
         <v>0</v>
       </c>
-      <c r="DH4" s="2"/>
-      <c r="DI4" s="2"/>
-      <c r="DJ4" s="2"/>
-      <c r="DK4" s="2"/>
-      <c r="DL4" s="2"/>
-      <c r="DM4" s="2"/>
-      <c r="DN4" s="2"/>
-      <c r="DO4" s="2"/>
-      <c r="DP4" s="2"/>
-      <c r="DQ4" s="2"/>
-      <c r="DR4" s="2"/>
-      <c r="DS4" s="2"/>
-      <c r="DT4" s="2"/>
-      <c r="DU4" s="2"/>
-      <c r="DV4" s="2"/>
-      <c r="DW4" s="2"/>
-      <c r="DX4" s="2"/>
-      <c r="DY4" s="2"/>
-      <c r="DZ4" s="2"/>
-      <c r="EA4" s="2"/>
-      <c r="EB4" s="2"/>
-      <c r="EC4" s="2"/>
-      <c r="ED4" s="2"/>
-      <c r="EE4" s="2"/>
-      <c r="EF4" s="2"/>
-      <c r="EG4" s="2"/>
-      <c r="EH4" s="2"/>
-      <c r="EI4" s="2"/>
-      <c r="EJ4" s="2"/>
-      <c r="EK4" s="2"/>
-      <c r="EL4" s="2"/>
-      <c r="EM4" s="2"/>
-      <c r="EN4" s="2"/>
-      <c r="EO4" s="2"/>
-      <c r="EP4" s="2"/>
-      <c r="EQ4" s="2"/>
-      <c r="ER4" s="2"/>
-      <c r="ES4" s="2"/>
-      <c r="ET4" s="2"/>
-      <c r="EU4" s="2"/>
-      <c r="EV4" s="2"/>
-      <c r="EW4" s="2"/>
-      <c r="EX4" s="2"/>
-      <c r="EY4" s="2"/>
-      <c r="EZ4" s="2"/>
-      <c r="FA4" s="2"/>
-      <c r="FB4" s="2"/>
-      <c r="FC4" s="2"/>
-      <c r="FD4" s="2"/>
-      <c r="FE4" s="2"/>
-      <c r="FF4" s="2"/>
-      <c r="FG4" s="2"/>
-      <c r="FH4" s="2"/>
-      <c r="FI4" s="2"/>
-      <c r="FJ4" s="2"/>
-      <c r="FK4" s="2"/>
-      <c r="FL4" s="2"/>
-      <c r="FM4" s="2"/>
-      <c r="FN4" s="2"/>
-      <c r="FO4" s="2"/>
-      <c r="FP4" s="2"/>
-      <c r="FQ4" s="2"/>
-      <c r="FR4" s="2"/>
-      <c r="FS4" s="2"/>
-      <c r="FT4" s="2"/>
-      <c r="FU4" s="2"/>
-      <c r="FV4" s="2"/>
-      <c r="FW4" s="2"/>
-      <c r="FX4" s="2"/>
-      <c r="FY4" s="2"/>
-      <c r="FZ4" s="2"/>
-      <c r="GA4" s="2"/>
-      <c r="GB4" s="2"/>
-      <c r="GC4" s="2"/>
-      <c r="GD4" s="2"/>
-      <c r="GE4" s="2"/>
-      <c r="GF4" s="2"/>
-      <c r="GG4" s="2"/>
-      <c r="GH4" s="2"/>
-      <c r="GI4" s="2"/>
-      <c r="GJ4" s="2"/>
-      <c r="GK4" s="2"/>
-      <c r="GL4" s="2"/>
-      <c r="GM4" s="2"/>
-      <c r="GN4" s="2"/>
-      <c r="GO4" s="2"/>
-      <c r="GP4" s="2"/>
-      <c r="GQ4" s="2"/>
-      <c r="GR4" s="2"/>
-      <c r="GS4" s="2"/>
-      <c r="GT4" s="2"/>
-      <c r="GU4" s="2"/>
-      <c r="GV4" s="2"/>
-      <c r="GW4" s="2"/>
-      <c r="GX4" s="2"/>
-      <c r="GY4" s="2"/>
-      <c r="GZ4" s="2"/>
-      <c r="HA4" s="2"/>
-      <c r="HB4" s="2"/>
-      <c r="HC4" s="2"/>
-      <c r="HD4" s="2"/>
-      <c r="HE4" s="2"/>
-      <c r="HF4" s="2"/>
-      <c r="HG4" s="2"/>
-      <c r="HH4" s="2"/>
-      <c r="HI4" s="2"/>
-      <c r="HJ4" s="2"/>
-      <c r="HK4" s="2"/>
-      <c r="HL4" s="2"/>
-      <c r="HM4" s="2"/>
-      <c r="HN4" s="2"/>
-      <c r="HO4" s="2"/>
-      <c r="HP4" s="2"/>
-      <c r="HQ4" s="2"/>
-      <c r="HR4" s="2"/>
-      <c r="HS4" s="2"/>
-      <c r="HT4" s="2"/>
-      <c r="HU4" s="2"/>
-      <c r="HV4" s="2"/>
-      <c r="HW4" s="2"/>
-      <c r="HX4" s="2"/>
-      <c r="HY4" s="2"/>
-      <c r="HZ4" s="2"/>
-      <c r="IA4" s="2"/>
-      <c r="IB4" s="2"/>
-      <c r="IC4" s="2"/>
-      <c r="ID4" s="2"/>
-      <c r="IE4" s="2"/>
-      <c r="IF4" s="2"/>
-      <c r="IG4" s="2"/>
-      <c r="IH4" s="2"/>
-      <c r="II4" s="2"/>
-      <c r="IJ4" s="2"/>
-      <c r="IK4" s="2"/>
-      <c r="IL4" s="2"/>
-      <c r="IM4" s="2"/>
-      <c r="IN4" s="2"/>
-      <c r="IO4" s="2"/>
-      <c r="IP4" s="2"/>
-      <c r="IQ4" s="2"/>
-      <c r="IR4" s="2"/>
-      <c r="IS4" s="2"/>
-      <c r="IT4" s="2"/>
-      <c r="IU4" s="2"/>
-      <c r="IV4" s="2"/>
-      <c r="IW4" s="2"/>
-      <c r="IX4" s="2"/>
-      <c r="IY4" s="2"/>
-      <c r="IZ4" s="2"/>
-      <c r="JA4" s="2"/>
-      <c r="JB4" s="2"/>
-      <c r="JC4" s="2"/>
-      <c r="JD4" s="2"/>
-      <c r="JE4" s="2"/>
-      <c r="JF4" s="2"/>
     </row>
-    <row r="5" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -3208,169 +2402,14 @@
       <c r="DE5" s="1">
         <v>0</v>
       </c>
-      <c r="DF5" s="3">
+      <c r="DF5" s="2">
         <v>0</v>
       </c>
       <c r="DG5" s="1">
         <v>0</v>
       </c>
-      <c r="DH5" s="2"/>
-      <c r="DI5" s="2"/>
-      <c r="DJ5" s="2"/>
-      <c r="DK5" s="2"/>
-      <c r="DL5" s="2"/>
-      <c r="DM5" s="2"/>
-      <c r="DN5" s="2"/>
-      <c r="DO5" s="2"/>
-      <c r="DP5" s="2"/>
-      <c r="DQ5" s="2"/>
-      <c r="DR5" s="2"/>
-      <c r="DS5" s="2"/>
-      <c r="DT5" s="2"/>
-      <c r="DU5" s="2"/>
-      <c r="DV5" s="2"/>
-      <c r="DW5" s="2"/>
-      <c r="DX5" s="2"/>
-      <c r="DY5" s="2"/>
-      <c r="DZ5" s="2"/>
-      <c r="EA5" s="2"/>
-      <c r="EB5" s="2"/>
-      <c r="EC5" s="2"/>
-      <c r="ED5" s="2"/>
-      <c r="EE5" s="2"/>
-      <c r="EF5" s="2"/>
-      <c r="EG5" s="2"/>
-      <c r="EH5" s="2"/>
-      <c r="EI5" s="2"/>
-      <c r="EJ5" s="2"/>
-      <c r="EK5" s="2"/>
-      <c r="EL5" s="2"/>
-      <c r="EM5" s="2"/>
-      <c r="EN5" s="2"/>
-      <c r="EO5" s="2"/>
-      <c r="EP5" s="2"/>
-      <c r="EQ5" s="2"/>
-      <c r="ER5" s="2"/>
-      <c r="ES5" s="2"/>
-      <c r="ET5" s="2"/>
-      <c r="EU5" s="2"/>
-      <c r="EV5" s="2"/>
-      <c r="EW5" s="2"/>
-      <c r="EX5" s="2"/>
-      <c r="EY5" s="2"/>
-      <c r="EZ5" s="2"/>
-      <c r="FA5" s="2"/>
-      <c r="FB5" s="2"/>
-      <c r="FC5" s="2"/>
-      <c r="FD5" s="2"/>
-      <c r="FE5" s="2"/>
-      <c r="FF5" s="2"/>
-      <c r="FG5" s="2"/>
-      <c r="FH5" s="2"/>
-      <c r="FI5" s="2"/>
-      <c r="FJ5" s="2"/>
-      <c r="FK5" s="2"/>
-      <c r="FL5" s="2"/>
-      <c r="FM5" s="2"/>
-      <c r="FN5" s="2"/>
-      <c r="FO5" s="2"/>
-      <c r="FP5" s="2"/>
-      <c r="FQ5" s="2"/>
-      <c r="FR5" s="2"/>
-      <c r="FS5" s="2"/>
-      <c r="FT5" s="2"/>
-      <c r="FU5" s="2"/>
-      <c r="FV5" s="2"/>
-      <c r="FW5" s="2"/>
-      <c r="FX5" s="2"/>
-      <c r="FY5" s="2"/>
-      <c r="FZ5" s="2"/>
-      <c r="GA5" s="2"/>
-      <c r="GB5" s="2"/>
-      <c r="GC5" s="2"/>
-      <c r="GD5" s="2"/>
-      <c r="GE5" s="2"/>
-      <c r="GF5" s="2"/>
-      <c r="GG5" s="2"/>
-      <c r="GH5" s="2"/>
-      <c r="GI5" s="2"/>
-      <c r="GJ5" s="2"/>
-      <c r="GK5" s="2"/>
-      <c r="GL5" s="2"/>
-      <c r="GM5" s="2"/>
-      <c r="GN5" s="2"/>
-      <c r="GO5" s="2"/>
-      <c r="GP5" s="2"/>
-      <c r="GQ5" s="2"/>
-      <c r="GR5" s="2"/>
-      <c r="GS5" s="2"/>
-      <c r="GT5" s="2"/>
-      <c r="GU5" s="2"/>
-      <c r="GV5" s="2"/>
-      <c r="GW5" s="2"/>
-      <c r="GX5" s="2"/>
-      <c r="GY5" s="2"/>
-      <c r="GZ5" s="2"/>
-      <c r="HA5" s="2"/>
-      <c r="HB5" s="2"/>
-      <c r="HC5" s="2"/>
-      <c r="HD5" s="2"/>
-      <c r="HE5" s="2"/>
-      <c r="HF5" s="2"/>
-      <c r="HG5" s="2"/>
-      <c r="HH5" s="2"/>
-      <c r="HI5" s="2"/>
-      <c r="HJ5" s="2"/>
-      <c r="HK5" s="2"/>
-      <c r="HL5" s="2"/>
-      <c r="HM5" s="2"/>
-      <c r="HN5" s="2"/>
-      <c r="HO5" s="2"/>
-      <c r="HP5" s="2"/>
-      <c r="HQ5" s="2"/>
-      <c r="HR5" s="2"/>
-      <c r="HS5" s="2"/>
-      <c r="HT5" s="2"/>
-      <c r="HU5" s="2"/>
-      <c r="HV5" s="2"/>
-      <c r="HW5" s="2"/>
-      <c r="HX5" s="2"/>
-      <c r="HY5" s="2"/>
-      <c r="HZ5" s="2"/>
-      <c r="IA5" s="2"/>
-      <c r="IB5" s="2"/>
-      <c r="IC5" s="2"/>
-      <c r="ID5" s="2"/>
-      <c r="IE5" s="2"/>
-      <c r="IF5" s="2"/>
-      <c r="IG5" s="2"/>
-      <c r="IH5" s="2"/>
-      <c r="II5" s="2"/>
-      <c r="IJ5" s="2"/>
-      <c r="IK5" s="2"/>
-      <c r="IL5" s="2"/>
-      <c r="IM5" s="2"/>
-      <c r="IN5" s="2"/>
-      <c r="IO5" s="2"/>
-      <c r="IP5" s="2"/>
-      <c r="IQ5" s="2"/>
-      <c r="IR5" s="2"/>
-      <c r="IS5" s="2"/>
-      <c r="IT5" s="2"/>
-      <c r="IU5" s="2"/>
-      <c r="IV5" s="2"/>
-      <c r="IW5" s="2"/>
-      <c r="IX5" s="2"/>
-      <c r="IY5" s="2"/>
-      <c r="IZ5" s="2"/>
-      <c r="JA5" s="2"/>
-      <c r="JB5" s="2"/>
-      <c r="JC5" s="2"/>
-      <c r="JD5" s="2"/>
-      <c r="JE5" s="2"/>
-      <c r="JF5" s="2"/>
     </row>
-    <row r="6" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -3698,169 +2737,14 @@
       <c r="DE6" s="1">
         <v>0</v>
       </c>
-      <c r="DF6" s="3">
+      <c r="DF6" s="2">
         <v>0</v>
       </c>
       <c r="DG6" s="1">
         <v>0</v>
       </c>
-      <c r="DH6" s="2"/>
-      <c r="DI6" s="2"/>
-      <c r="DJ6" s="2"/>
-      <c r="DK6" s="2"/>
-      <c r="DL6" s="2"/>
-      <c r="DM6" s="2"/>
-      <c r="DN6" s="2"/>
-      <c r="DO6" s="2"/>
-      <c r="DP6" s="2"/>
-      <c r="DQ6" s="2"/>
-      <c r="DR6" s="2"/>
-      <c r="DS6" s="2"/>
-      <c r="DT6" s="2"/>
-      <c r="DU6" s="2"/>
-      <c r="DV6" s="2"/>
-      <c r="DW6" s="2"/>
-      <c r="DX6" s="2"/>
-      <c r="DY6" s="2"/>
-      <c r="DZ6" s="2"/>
-      <c r="EA6" s="2"/>
-      <c r="EB6" s="2"/>
-      <c r="EC6" s="2"/>
-      <c r="ED6" s="2"/>
-      <c r="EE6" s="2"/>
-      <c r="EF6" s="2"/>
-      <c r="EG6" s="2"/>
-      <c r="EH6" s="2"/>
-      <c r="EI6" s="2"/>
-      <c r="EJ6" s="2"/>
-      <c r="EK6" s="2"/>
-      <c r="EL6" s="2"/>
-      <c r="EM6" s="2"/>
-      <c r="EN6" s="2"/>
-      <c r="EO6" s="2"/>
-      <c r="EP6" s="2"/>
-      <c r="EQ6" s="2"/>
-      <c r="ER6" s="2"/>
-      <c r="ES6" s="2"/>
-      <c r="ET6" s="2"/>
-      <c r="EU6" s="2"/>
-      <c r="EV6" s="2"/>
-      <c r="EW6" s="2"/>
-      <c r="EX6" s="2"/>
-      <c r="EY6" s="2"/>
-      <c r="EZ6" s="2"/>
-      <c r="FA6" s="2"/>
-      <c r="FB6" s="2"/>
-      <c r="FC6" s="2"/>
-      <c r="FD6" s="2"/>
-      <c r="FE6" s="2"/>
-      <c r="FF6" s="2"/>
-      <c r="FG6" s="2"/>
-      <c r="FH6" s="2"/>
-      <c r="FI6" s="2"/>
-      <c r="FJ6" s="2"/>
-      <c r="FK6" s="2"/>
-      <c r="FL6" s="2"/>
-      <c r="FM6" s="2"/>
-      <c r="FN6" s="2"/>
-      <c r="FO6" s="2"/>
-      <c r="FP6" s="2"/>
-      <c r="FQ6" s="2"/>
-      <c r="FR6" s="2"/>
-      <c r="FS6" s="2"/>
-      <c r="FT6" s="2"/>
-      <c r="FU6" s="2"/>
-      <c r="FV6" s="2"/>
-      <c r="FW6" s="2"/>
-      <c r="FX6" s="2"/>
-      <c r="FY6" s="2"/>
-      <c r="FZ6" s="2"/>
-      <c r="GA6" s="2"/>
-      <c r="GB6" s="2"/>
-      <c r="GC6" s="2"/>
-      <c r="GD6" s="2"/>
-      <c r="GE6" s="2"/>
-      <c r="GF6" s="2"/>
-      <c r="GG6" s="2"/>
-      <c r="GH6" s="2"/>
-      <c r="GI6" s="2"/>
-      <c r="GJ6" s="2"/>
-      <c r="GK6" s="2"/>
-      <c r="GL6" s="2"/>
-      <c r="GM6" s="2"/>
-      <c r="GN6" s="2"/>
-      <c r="GO6" s="2"/>
-      <c r="GP6" s="2"/>
-      <c r="GQ6" s="2"/>
-      <c r="GR6" s="2"/>
-      <c r="GS6" s="2"/>
-      <c r="GT6" s="2"/>
-      <c r="GU6" s="2"/>
-      <c r="GV6" s="2"/>
-      <c r="GW6" s="2"/>
-      <c r="GX6" s="2"/>
-      <c r="GY6" s="2"/>
-      <c r="GZ6" s="2"/>
-      <c r="HA6" s="2"/>
-      <c r="HB6" s="2"/>
-      <c r="HC6" s="2"/>
-      <c r="HD6" s="2"/>
-      <c r="HE6" s="2"/>
-      <c r="HF6" s="2"/>
-      <c r="HG6" s="2"/>
-      <c r="HH6" s="2"/>
-      <c r="HI6" s="2"/>
-      <c r="HJ6" s="2"/>
-      <c r="HK6" s="2"/>
-      <c r="HL6" s="2"/>
-      <c r="HM6" s="2"/>
-      <c r="HN6" s="2"/>
-      <c r="HO6" s="2"/>
-      <c r="HP6" s="2"/>
-      <c r="HQ6" s="2"/>
-      <c r="HR6" s="2"/>
-      <c r="HS6" s="2"/>
-      <c r="HT6" s="2"/>
-      <c r="HU6" s="2"/>
-      <c r="HV6" s="2"/>
-      <c r="HW6" s="2"/>
-      <c r="HX6" s="2"/>
-      <c r="HY6" s="2"/>
-      <c r="HZ6" s="2"/>
-      <c r="IA6" s="2"/>
-      <c r="IB6" s="2"/>
-      <c r="IC6" s="2"/>
-      <c r="ID6" s="2"/>
-      <c r="IE6" s="2"/>
-      <c r="IF6" s="2"/>
-      <c r="IG6" s="2"/>
-      <c r="IH6" s="2"/>
-      <c r="II6" s="2"/>
-      <c r="IJ6" s="2"/>
-      <c r="IK6" s="2"/>
-      <c r="IL6" s="2"/>
-      <c r="IM6" s="2"/>
-      <c r="IN6" s="2"/>
-      <c r="IO6" s="2"/>
-      <c r="IP6" s="2"/>
-      <c r="IQ6" s="2"/>
-      <c r="IR6" s="2"/>
-      <c r="IS6" s="2"/>
-      <c r="IT6" s="2"/>
-      <c r="IU6" s="2"/>
-      <c r="IV6" s="2"/>
-      <c r="IW6" s="2"/>
-      <c r="IX6" s="2"/>
-      <c r="IY6" s="2"/>
-      <c r="IZ6" s="2"/>
-      <c r="JA6" s="2"/>
-      <c r="JB6" s="2"/>
-      <c r="JC6" s="2"/>
-      <c r="JD6" s="2"/>
-      <c r="JE6" s="2"/>
-      <c r="JF6" s="2"/>
     </row>
-    <row r="7" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -4188,169 +3072,14 @@
       <c r="DE7" s="1">
         <v>0</v>
       </c>
-      <c r="DF7" s="3">
+      <c r="DF7" s="2">
         <v>0</v>
       </c>
       <c r="DG7" s="1">
         <v>0</v>
       </c>
-      <c r="DH7" s="2"/>
-      <c r="DI7" s="2"/>
-      <c r="DJ7" s="2"/>
-      <c r="DK7" s="2"/>
-      <c r="DL7" s="2"/>
-      <c r="DM7" s="2"/>
-      <c r="DN7" s="2"/>
-      <c r="DO7" s="2"/>
-      <c r="DP7" s="2"/>
-      <c r="DQ7" s="2"/>
-      <c r="DR7" s="2"/>
-      <c r="DS7" s="2"/>
-      <c r="DT7" s="2"/>
-      <c r="DU7" s="2"/>
-      <c r="DV7" s="2"/>
-      <c r="DW7" s="2"/>
-      <c r="DX7" s="2"/>
-      <c r="DY7" s="2"/>
-      <c r="DZ7" s="2"/>
-      <c r="EA7" s="2"/>
-      <c r="EB7" s="2"/>
-      <c r="EC7" s="2"/>
-      <c r="ED7" s="2"/>
-      <c r="EE7" s="2"/>
-      <c r="EF7" s="2"/>
-      <c r="EG7" s="2"/>
-      <c r="EH7" s="2"/>
-      <c r="EI7" s="2"/>
-      <c r="EJ7" s="2"/>
-      <c r="EK7" s="2"/>
-      <c r="EL7" s="2"/>
-      <c r="EM7" s="2"/>
-      <c r="EN7" s="2"/>
-      <c r="EO7" s="2"/>
-      <c r="EP7" s="2"/>
-      <c r="EQ7" s="2"/>
-      <c r="ER7" s="2"/>
-      <c r="ES7" s="2"/>
-      <c r="ET7" s="2"/>
-      <c r="EU7" s="2"/>
-      <c r="EV7" s="2"/>
-      <c r="EW7" s="2"/>
-      <c r="EX7" s="2"/>
-      <c r="EY7" s="2"/>
-      <c r="EZ7" s="2"/>
-      <c r="FA7" s="2"/>
-      <c r="FB7" s="2"/>
-      <c r="FC7" s="2"/>
-      <c r="FD7" s="2"/>
-      <c r="FE7" s="2"/>
-      <c r="FF7" s="2"/>
-      <c r="FG7" s="2"/>
-      <c r="FH7" s="2"/>
-      <c r="FI7" s="2"/>
-      <c r="FJ7" s="2"/>
-      <c r="FK7" s="2"/>
-      <c r="FL7" s="2"/>
-      <c r="FM7" s="2"/>
-      <c r="FN7" s="2"/>
-      <c r="FO7" s="2"/>
-      <c r="FP7" s="2"/>
-      <c r="FQ7" s="2"/>
-      <c r="FR7" s="2"/>
-      <c r="FS7" s="2"/>
-      <c r="FT7" s="2"/>
-      <c r="FU7" s="2"/>
-      <c r="FV7" s="2"/>
-      <c r="FW7" s="2"/>
-      <c r="FX7" s="2"/>
-      <c r="FY7" s="2"/>
-      <c r="FZ7" s="2"/>
-      <c r="GA7" s="2"/>
-      <c r="GB7" s="2"/>
-      <c r="GC7" s="2"/>
-      <c r="GD7" s="2"/>
-      <c r="GE7" s="2"/>
-      <c r="GF7" s="2"/>
-      <c r="GG7" s="2"/>
-      <c r="GH7" s="2"/>
-      <c r="GI7" s="2"/>
-      <c r="GJ7" s="2"/>
-      <c r="GK7" s="2"/>
-      <c r="GL7" s="2"/>
-      <c r="GM7" s="2"/>
-      <c r="GN7" s="2"/>
-      <c r="GO7" s="2"/>
-      <c r="GP7" s="2"/>
-      <c r="GQ7" s="2"/>
-      <c r="GR7" s="2"/>
-      <c r="GS7" s="2"/>
-      <c r="GT7" s="2"/>
-      <c r="GU7" s="2"/>
-      <c r="GV7" s="2"/>
-      <c r="GW7" s="2"/>
-      <c r="GX7" s="2"/>
-      <c r="GY7" s="2"/>
-      <c r="GZ7" s="2"/>
-      <c r="HA7" s="2"/>
-      <c r="HB7" s="2"/>
-      <c r="HC7" s="2"/>
-      <c r="HD7" s="2"/>
-      <c r="HE7" s="2"/>
-      <c r="HF7" s="2"/>
-      <c r="HG7" s="2"/>
-      <c r="HH7" s="2"/>
-      <c r="HI7" s="2"/>
-      <c r="HJ7" s="2"/>
-      <c r="HK7" s="2"/>
-      <c r="HL7" s="2"/>
-      <c r="HM7" s="2"/>
-      <c r="HN7" s="2"/>
-      <c r="HO7" s="2"/>
-      <c r="HP7" s="2"/>
-      <c r="HQ7" s="2"/>
-      <c r="HR7" s="2"/>
-      <c r="HS7" s="2"/>
-      <c r="HT7" s="2"/>
-      <c r="HU7" s="2"/>
-      <c r="HV7" s="2"/>
-      <c r="HW7" s="2"/>
-      <c r="HX7" s="2"/>
-      <c r="HY7" s="2"/>
-      <c r="HZ7" s="2"/>
-      <c r="IA7" s="2"/>
-      <c r="IB7" s="2"/>
-      <c r="IC7" s="2"/>
-      <c r="ID7" s="2"/>
-      <c r="IE7" s="2"/>
-      <c r="IF7" s="2"/>
-      <c r="IG7" s="2"/>
-      <c r="IH7" s="2"/>
-      <c r="II7" s="2"/>
-      <c r="IJ7" s="2"/>
-      <c r="IK7" s="2"/>
-      <c r="IL7" s="2"/>
-      <c r="IM7" s="2"/>
-      <c r="IN7" s="2"/>
-      <c r="IO7" s="2"/>
-      <c r="IP7" s="2"/>
-      <c r="IQ7" s="2"/>
-      <c r="IR7" s="2"/>
-      <c r="IS7" s="2"/>
-      <c r="IT7" s="2"/>
-      <c r="IU7" s="2"/>
-      <c r="IV7" s="2"/>
-      <c r="IW7" s="2"/>
-      <c r="IX7" s="2"/>
-      <c r="IY7" s="2"/>
-      <c r="IZ7" s="2"/>
-      <c r="JA7" s="2"/>
-      <c r="JB7" s="2"/>
-      <c r="JC7" s="2"/>
-      <c r="JD7" s="2"/>
-      <c r="JE7" s="2"/>
-      <c r="JF7" s="2"/>
     </row>
-    <row r="8" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -4678,169 +3407,14 @@
       <c r="DE8" s="1">
         <v>0</v>
       </c>
-      <c r="DF8" s="3">
+      <c r="DF8" s="2">
         <v>0</v>
       </c>
       <c r="DG8" s="1">
         <v>0</v>
       </c>
-      <c r="DH8" s="2"/>
-      <c r="DI8" s="2"/>
-      <c r="DJ8" s="2"/>
-      <c r="DK8" s="2"/>
-      <c r="DL8" s="2"/>
-      <c r="DM8" s="2"/>
-      <c r="DN8" s="2"/>
-      <c r="DO8" s="2"/>
-      <c r="DP8" s="2"/>
-      <c r="DQ8" s="2"/>
-      <c r="DR8" s="2"/>
-      <c r="DS8" s="2"/>
-      <c r="DT8" s="2"/>
-      <c r="DU8" s="2"/>
-      <c r="DV8" s="2"/>
-      <c r="DW8" s="2"/>
-      <c r="DX8" s="2"/>
-      <c r="DY8" s="2"/>
-      <c r="DZ8" s="2"/>
-      <c r="EA8" s="2"/>
-      <c r="EB8" s="2"/>
-      <c r="EC8" s="2"/>
-      <c r="ED8" s="2"/>
-      <c r="EE8" s="2"/>
-      <c r="EF8" s="2"/>
-      <c r="EG8" s="2"/>
-      <c r="EH8" s="2"/>
-      <c r="EI8" s="2"/>
-      <c r="EJ8" s="2"/>
-      <c r="EK8" s="2"/>
-      <c r="EL8" s="2"/>
-      <c r="EM8" s="2"/>
-      <c r="EN8" s="2"/>
-      <c r="EO8" s="2"/>
-      <c r="EP8" s="2"/>
-      <c r="EQ8" s="2"/>
-      <c r="ER8" s="2"/>
-      <c r="ES8" s="2"/>
-      <c r="ET8" s="2"/>
-      <c r="EU8" s="2"/>
-      <c r="EV8" s="2"/>
-      <c r="EW8" s="2"/>
-      <c r="EX8" s="2"/>
-      <c r="EY8" s="2"/>
-      <c r="EZ8" s="2"/>
-      <c r="FA8" s="2"/>
-      <c r="FB8" s="2"/>
-      <c r="FC8" s="2"/>
-      <c r="FD8" s="2"/>
-      <c r="FE8" s="2"/>
-      <c r="FF8" s="2"/>
-      <c r="FG8" s="2"/>
-      <c r="FH8" s="2"/>
-      <c r="FI8" s="2"/>
-      <c r="FJ8" s="2"/>
-      <c r="FK8" s="2"/>
-      <c r="FL8" s="2"/>
-      <c r="FM8" s="2"/>
-      <c r="FN8" s="2"/>
-      <c r="FO8" s="2"/>
-      <c r="FP8" s="2"/>
-      <c r="FQ8" s="2"/>
-      <c r="FR8" s="2"/>
-      <c r="FS8" s="2"/>
-      <c r="FT8" s="2"/>
-      <c r="FU8" s="2"/>
-      <c r="FV8" s="2"/>
-      <c r="FW8" s="2"/>
-      <c r="FX8" s="2"/>
-      <c r="FY8" s="2"/>
-      <c r="FZ8" s="2"/>
-      <c r="GA8" s="2"/>
-      <c r="GB8" s="2"/>
-      <c r="GC8" s="2"/>
-      <c r="GD8" s="2"/>
-      <c r="GE8" s="2"/>
-      <c r="GF8" s="2"/>
-      <c r="GG8" s="2"/>
-      <c r="GH8" s="2"/>
-      <c r="GI8" s="2"/>
-      <c r="GJ8" s="2"/>
-      <c r="GK8" s="2"/>
-      <c r="GL8" s="2"/>
-      <c r="GM8" s="2"/>
-      <c r="GN8" s="2"/>
-      <c r="GO8" s="2"/>
-      <c r="GP8" s="2"/>
-      <c r="GQ8" s="2"/>
-      <c r="GR8" s="2"/>
-      <c r="GS8" s="2"/>
-      <c r="GT8" s="2"/>
-      <c r="GU8" s="2"/>
-      <c r="GV8" s="2"/>
-      <c r="GW8" s="2"/>
-      <c r="GX8" s="2"/>
-      <c r="GY8" s="2"/>
-      <c r="GZ8" s="2"/>
-      <c r="HA8" s="2"/>
-      <c r="HB8" s="2"/>
-      <c r="HC8" s="2"/>
-      <c r="HD8" s="2"/>
-      <c r="HE8" s="2"/>
-      <c r="HF8" s="2"/>
-      <c r="HG8" s="2"/>
-      <c r="HH8" s="2"/>
-      <c r="HI8" s="2"/>
-      <c r="HJ8" s="2"/>
-      <c r="HK8" s="2"/>
-      <c r="HL8" s="2"/>
-      <c r="HM8" s="2"/>
-      <c r="HN8" s="2"/>
-      <c r="HO8" s="2"/>
-      <c r="HP8" s="2"/>
-      <c r="HQ8" s="2"/>
-      <c r="HR8" s="2"/>
-      <c r="HS8" s="2"/>
-      <c r="HT8" s="2"/>
-      <c r="HU8" s="2"/>
-      <c r="HV8" s="2"/>
-      <c r="HW8" s="2"/>
-      <c r="HX8" s="2"/>
-      <c r="HY8" s="2"/>
-      <c r="HZ8" s="2"/>
-      <c r="IA8" s="2"/>
-      <c r="IB8" s="2"/>
-      <c r="IC8" s="2"/>
-      <c r="ID8" s="2"/>
-      <c r="IE8" s="2"/>
-      <c r="IF8" s="2"/>
-      <c r="IG8" s="2"/>
-      <c r="IH8" s="2"/>
-      <c r="II8" s="2"/>
-      <c r="IJ8" s="2"/>
-      <c r="IK8" s="2"/>
-      <c r="IL8" s="2"/>
-      <c r="IM8" s="2"/>
-      <c r="IN8" s="2"/>
-      <c r="IO8" s="2"/>
-      <c r="IP8" s="2"/>
-      <c r="IQ8" s="2"/>
-      <c r="IR8" s="2"/>
-      <c r="IS8" s="2"/>
-      <c r="IT8" s="2"/>
-      <c r="IU8" s="2"/>
-      <c r="IV8" s="2"/>
-      <c r="IW8" s="2"/>
-      <c r="IX8" s="2"/>
-      <c r="IY8" s="2"/>
-      <c r="IZ8" s="2"/>
-      <c r="JA8" s="2"/>
-      <c r="JB8" s="2"/>
-      <c r="JC8" s="2"/>
-      <c r="JD8" s="2"/>
-      <c r="JE8" s="2"/>
-      <c r="JF8" s="2"/>
     </row>
-    <row r="9" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -5168,169 +3742,14 @@
       <c r="DE9" s="1">
         <v>0</v>
       </c>
-      <c r="DF9" s="3">
+      <c r="DF9" s="2">
         <v>0</v>
       </c>
       <c r="DG9" s="1">
         <v>0</v>
       </c>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
-      <c r="DN9" s="2"/>
-      <c r="DO9" s="2"/>
-      <c r="DP9" s="2"/>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2"/>
-      <c r="EA9" s="2"/>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
-      <c r="EP9" s="2"/>
-      <c r="EQ9" s="2"/>
-      <c r="ER9" s="2"/>
-      <c r="ES9" s="2"/>
-      <c r="ET9" s="2"/>
-      <c r="EU9" s="2"/>
-      <c r="EV9" s="2"/>
-      <c r="EW9" s="2"/>
-      <c r="EX9" s="2"/>
-      <c r="EY9" s="2"/>
-      <c r="EZ9" s="2"/>
-      <c r="FA9" s="2"/>
-      <c r="FB9" s="2"/>
-      <c r="FC9" s="2"/>
-      <c r="FD9" s="2"/>
-      <c r="FE9" s="2"/>
-      <c r="FF9" s="2"/>
-      <c r="FG9" s="2"/>
-      <c r="FH9" s="2"/>
-      <c r="FI9" s="2"/>
-      <c r="FJ9" s="2"/>
-      <c r="FK9" s="2"/>
-      <c r="FL9" s="2"/>
-      <c r="FM9" s="2"/>
-      <c r="FN9" s="2"/>
-      <c r="FO9" s="2"/>
-      <c r="FP9" s="2"/>
-      <c r="FQ9" s="2"/>
-      <c r="FR9" s="2"/>
-      <c r="FS9" s="2"/>
-      <c r="FT9" s="2"/>
-      <c r="FU9" s="2"/>
-      <c r="FV9" s="2"/>
-      <c r="FW9" s="2"/>
-      <c r="FX9" s="2"/>
-      <c r="FY9" s="2"/>
-      <c r="FZ9" s="2"/>
-      <c r="GA9" s="2"/>
-      <c r="GB9" s="2"/>
-      <c r="GC9" s="2"/>
-      <c r="GD9" s="2"/>
-      <c r="GE9" s="2"/>
-      <c r="GF9" s="2"/>
-      <c r="GG9" s="2"/>
-      <c r="GH9" s="2"/>
-      <c r="GI9" s="2"/>
-      <c r="GJ9" s="2"/>
-      <c r="GK9" s="2"/>
-      <c r="GL9" s="2"/>
-      <c r="GM9" s="2"/>
-      <c r="GN9" s="2"/>
-      <c r="GO9" s="2"/>
-      <c r="GP9" s="2"/>
-      <c r="GQ9" s="2"/>
-      <c r="GR9" s="2"/>
-      <c r="GS9" s="2"/>
-      <c r="GT9" s="2"/>
-      <c r="GU9" s="2"/>
-      <c r="GV9" s="2"/>
-      <c r="GW9" s="2"/>
-      <c r="GX9" s="2"/>
-      <c r="GY9" s="2"/>
-      <c r="GZ9" s="2"/>
-      <c r="HA9" s="2"/>
-      <c r="HB9" s="2"/>
-      <c r="HC9" s="2"/>
-      <c r="HD9" s="2"/>
-      <c r="HE9" s="2"/>
-      <c r="HF9" s="2"/>
-      <c r="HG9" s="2"/>
-      <c r="HH9" s="2"/>
-      <c r="HI9" s="2"/>
-      <c r="HJ9" s="2"/>
-      <c r="HK9" s="2"/>
-      <c r="HL9" s="2"/>
-      <c r="HM9" s="2"/>
-      <c r="HN9" s="2"/>
-      <c r="HO9" s="2"/>
-      <c r="HP9" s="2"/>
-      <c r="HQ9" s="2"/>
-      <c r="HR9" s="2"/>
-      <c r="HS9" s="2"/>
-      <c r="HT9" s="2"/>
-      <c r="HU9" s="2"/>
-      <c r="HV9" s="2"/>
-      <c r="HW9" s="2"/>
-      <c r="HX9" s="2"/>
-      <c r="HY9" s="2"/>
-      <c r="HZ9" s="2"/>
-      <c r="IA9" s="2"/>
-      <c r="IB9" s="2"/>
-      <c r="IC9" s="2"/>
-      <c r="ID9" s="2"/>
-      <c r="IE9" s="2"/>
-      <c r="IF9" s="2"/>
-      <c r="IG9" s="2"/>
-      <c r="IH9" s="2"/>
-      <c r="II9" s="2"/>
-      <c r="IJ9" s="2"/>
-      <c r="IK9" s="2"/>
-      <c r="IL9" s="2"/>
-      <c r="IM9" s="2"/>
-      <c r="IN9" s="2"/>
-      <c r="IO9" s="2"/>
-      <c r="IP9" s="2"/>
-      <c r="IQ9" s="2"/>
-      <c r="IR9" s="2"/>
-      <c r="IS9" s="2"/>
-      <c r="IT9" s="2"/>
-      <c r="IU9" s="2"/>
-      <c r="IV9" s="2"/>
-      <c r="IW9" s="2"/>
-      <c r="IX9" s="2"/>
-      <c r="IY9" s="2"/>
-      <c r="IZ9" s="2"/>
-      <c r="JA9" s="2"/>
-      <c r="JB9" s="2"/>
-      <c r="JC9" s="2"/>
-      <c r="JD9" s="2"/>
-      <c r="JE9" s="2"/>
-      <c r="JF9" s="2"/>
     </row>
-    <row r="10" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -5635,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="CX10" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CY10" s="1">
         <v>0</v>
@@ -5658,169 +4077,14 @@
       <c r="DE10" s="1">
         <v>0</v>
       </c>
-      <c r="DF10" s="3">
+      <c r="DF10" s="2">
         <v>0</v>
       </c>
       <c r="DG10" s="1">
         <v>0</v>
       </c>
-      <c r="DH10" s="2"/>
-      <c r="DI10" s="2"/>
-      <c r="DJ10" s="2"/>
-      <c r="DK10" s="2"/>
-      <c r="DL10" s="2"/>
-      <c r="DM10" s="2"/>
-      <c r="DN10" s="2"/>
-      <c r="DO10" s="2"/>
-      <c r="DP10" s="2"/>
-      <c r="DQ10" s="2"/>
-      <c r="DR10" s="2"/>
-      <c r="DS10" s="2"/>
-      <c r="DT10" s="2"/>
-      <c r="DU10" s="2"/>
-      <c r="DV10" s="2"/>
-      <c r="DW10" s="2"/>
-      <c r="DX10" s="2"/>
-      <c r="DY10" s="2"/>
-      <c r="DZ10" s="2"/>
-      <c r="EA10" s="2"/>
-      <c r="EB10" s="2"/>
-      <c r="EC10" s="2"/>
-      <c r="ED10" s="2"/>
-      <c r="EE10" s="2"/>
-      <c r="EF10" s="2"/>
-      <c r="EG10" s="2"/>
-      <c r="EH10" s="2"/>
-      <c r="EI10" s="2"/>
-      <c r="EJ10" s="2"/>
-      <c r="EK10" s="2"/>
-      <c r="EL10" s="2"/>
-      <c r="EM10" s="2"/>
-      <c r="EN10" s="2"/>
-      <c r="EO10" s="2"/>
-      <c r="EP10" s="2"/>
-      <c r="EQ10" s="2"/>
-      <c r="ER10" s="2"/>
-      <c r="ES10" s="2"/>
-      <c r="ET10" s="2"/>
-      <c r="EU10" s="2"/>
-      <c r="EV10" s="2"/>
-      <c r="EW10" s="2"/>
-      <c r="EX10" s="2"/>
-      <c r="EY10" s="2"/>
-      <c r="EZ10" s="2"/>
-      <c r="FA10" s="2"/>
-      <c r="FB10" s="2"/>
-      <c r="FC10" s="2"/>
-      <c r="FD10" s="2"/>
-      <c r="FE10" s="2"/>
-      <c r="FF10" s="2"/>
-      <c r="FG10" s="2"/>
-      <c r="FH10" s="2"/>
-      <c r="FI10" s="2"/>
-      <c r="FJ10" s="2"/>
-      <c r="FK10" s="2"/>
-      <c r="FL10" s="2"/>
-      <c r="FM10" s="2"/>
-      <c r="FN10" s="2"/>
-      <c r="FO10" s="2"/>
-      <c r="FP10" s="2"/>
-      <c r="FQ10" s="2"/>
-      <c r="FR10" s="2"/>
-      <c r="FS10" s="2"/>
-      <c r="FT10" s="2"/>
-      <c r="FU10" s="2"/>
-      <c r="FV10" s="2"/>
-      <c r="FW10" s="2"/>
-      <c r="FX10" s="2"/>
-      <c r="FY10" s="2"/>
-      <c r="FZ10" s="2"/>
-      <c r="GA10" s="2"/>
-      <c r="GB10" s="2"/>
-      <c r="GC10" s="2"/>
-      <c r="GD10" s="2"/>
-      <c r="GE10" s="2"/>
-      <c r="GF10" s="2"/>
-      <c r="GG10" s="2"/>
-      <c r="GH10" s="2"/>
-      <c r="GI10" s="2"/>
-      <c r="GJ10" s="2"/>
-      <c r="GK10" s="2"/>
-      <c r="GL10" s="2"/>
-      <c r="GM10" s="2"/>
-      <c r="GN10" s="2"/>
-      <c r="GO10" s="2"/>
-      <c r="GP10" s="2"/>
-      <c r="GQ10" s="2"/>
-      <c r="GR10" s="2"/>
-      <c r="GS10" s="2"/>
-      <c r="GT10" s="2"/>
-      <c r="GU10" s="2"/>
-      <c r="GV10" s="2"/>
-      <c r="GW10" s="2"/>
-      <c r="GX10" s="2"/>
-      <c r="GY10" s="2"/>
-      <c r="GZ10" s="2"/>
-      <c r="HA10" s="2"/>
-      <c r="HB10" s="2"/>
-      <c r="HC10" s="2"/>
-      <c r="HD10" s="2"/>
-      <c r="HE10" s="2"/>
-      <c r="HF10" s="2"/>
-      <c r="HG10" s="2"/>
-      <c r="HH10" s="2"/>
-      <c r="HI10" s="2"/>
-      <c r="HJ10" s="2"/>
-      <c r="HK10" s="2"/>
-      <c r="HL10" s="2"/>
-      <c r="HM10" s="2"/>
-      <c r="HN10" s="2"/>
-      <c r="HO10" s="2"/>
-      <c r="HP10" s="2"/>
-      <c r="HQ10" s="2"/>
-      <c r="HR10" s="2"/>
-      <c r="HS10" s="2"/>
-      <c r="HT10" s="2"/>
-      <c r="HU10" s="2"/>
-      <c r="HV10" s="2"/>
-      <c r="HW10" s="2"/>
-      <c r="HX10" s="2"/>
-      <c r="HY10" s="2"/>
-      <c r="HZ10" s="2"/>
-      <c r="IA10" s="2"/>
-      <c r="IB10" s="2"/>
-      <c r="IC10" s="2"/>
-      <c r="ID10" s="2"/>
-      <c r="IE10" s="2"/>
-      <c r="IF10" s="2"/>
-      <c r="IG10" s="2"/>
-      <c r="IH10" s="2"/>
-      <c r="II10" s="2"/>
-      <c r="IJ10" s="2"/>
-      <c r="IK10" s="2"/>
-      <c r="IL10" s="2"/>
-      <c r="IM10" s="2"/>
-      <c r="IN10" s="2"/>
-      <c r="IO10" s="2"/>
-      <c r="IP10" s="2"/>
-      <c r="IQ10" s="2"/>
-      <c r="IR10" s="2"/>
-      <c r="IS10" s="2"/>
-      <c r="IT10" s="2"/>
-      <c r="IU10" s="2"/>
-      <c r="IV10" s="2"/>
-      <c r="IW10" s="2"/>
-      <c r="IX10" s="2"/>
-      <c r="IY10" s="2"/>
-      <c r="IZ10" s="2"/>
-      <c r="JA10" s="2"/>
-      <c r="JB10" s="2"/>
-      <c r="JC10" s="2"/>
-      <c r="JD10" s="2"/>
-      <c r="JE10" s="2"/>
-      <c r="JF10" s="2"/>
     </row>
-    <row r="11" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -6101,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="CP11" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CQ11" s="1">
         <v>0</v>
@@ -6125,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="CX11" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CY11" s="1">
         <v>0</v>
@@ -6148,169 +4412,14 @@
       <c r="DE11" s="1">
         <v>0</v>
       </c>
-      <c r="DF11" s="3">
+      <c r="DF11" s="2">
         <v>0</v>
       </c>
       <c r="DG11" s="1">
         <v>0</v>
       </c>
-      <c r="DH11" s="2"/>
-      <c r="DI11" s="2"/>
-      <c r="DJ11" s="2"/>
-      <c r="DK11" s="2"/>
-      <c r="DL11" s="2"/>
-      <c r="DM11" s="2"/>
-      <c r="DN11" s="2"/>
-      <c r="DO11" s="2"/>
-      <c r="DP11" s="2"/>
-      <c r="DQ11" s="2"/>
-      <c r="DR11" s="2"/>
-      <c r="DS11" s="2"/>
-      <c r="DT11" s="2"/>
-      <c r="DU11" s="2"/>
-      <c r="DV11" s="2"/>
-      <c r="DW11" s="2"/>
-      <c r="DX11" s="2"/>
-      <c r="DY11" s="2"/>
-      <c r="DZ11" s="2"/>
-      <c r="EA11" s="2"/>
-      <c r="EB11" s="2"/>
-      <c r="EC11" s="2"/>
-      <c r="ED11" s="2"/>
-      <c r="EE11" s="2"/>
-      <c r="EF11" s="2"/>
-      <c r="EG11" s="2"/>
-      <c r="EH11" s="2"/>
-      <c r="EI11" s="2"/>
-      <c r="EJ11" s="2"/>
-      <c r="EK11" s="2"/>
-      <c r="EL11" s="2"/>
-      <c r="EM11" s="2"/>
-      <c r="EN11" s="2"/>
-      <c r="EO11" s="2"/>
-      <c r="EP11" s="2"/>
-      <c r="EQ11" s="2"/>
-      <c r="ER11" s="2"/>
-      <c r="ES11" s="2"/>
-      <c r="ET11" s="2"/>
-      <c r="EU11" s="2"/>
-      <c r="EV11" s="2"/>
-      <c r="EW11" s="2"/>
-      <c r="EX11" s="2"/>
-      <c r="EY11" s="2"/>
-      <c r="EZ11" s="2"/>
-      <c r="FA11" s="2"/>
-      <c r="FB11" s="2"/>
-      <c r="FC11" s="2"/>
-      <c r="FD11" s="2"/>
-      <c r="FE11" s="2"/>
-      <c r="FF11" s="2"/>
-      <c r="FG11" s="2"/>
-      <c r="FH11" s="2"/>
-      <c r="FI11" s="2"/>
-      <c r="FJ11" s="2"/>
-      <c r="FK11" s="2"/>
-      <c r="FL11" s="2"/>
-      <c r="FM11" s="2"/>
-      <c r="FN11" s="2"/>
-      <c r="FO11" s="2"/>
-      <c r="FP11" s="2"/>
-      <c r="FQ11" s="2"/>
-      <c r="FR11" s="2"/>
-      <c r="FS11" s="2"/>
-      <c r="FT11" s="2"/>
-      <c r="FU11" s="2"/>
-      <c r="FV11" s="2"/>
-      <c r="FW11" s="2"/>
-      <c r="FX11" s="2"/>
-      <c r="FY11" s="2"/>
-      <c r="FZ11" s="2"/>
-      <c r="GA11" s="2"/>
-      <c r="GB11" s="2"/>
-      <c r="GC11" s="2"/>
-      <c r="GD11" s="2"/>
-      <c r="GE11" s="2"/>
-      <c r="GF11" s="2"/>
-      <c r="GG11" s="2"/>
-      <c r="GH11" s="2"/>
-      <c r="GI11" s="2"/>
-      <c r="GJ11" s="2"/>
-      <c r="GK11" s="2"/>
-      <c r="GL11" s="2"/>
-      <c r="GM11" s="2"/>
-      <c r="GN11" s="2"/>
-      <c r="GO11" s="2"/>
-      <c r="GP11" s="2"/>
-      <c r="GQ11" s="2"/>
-      <c r="GR11" s="2"/>
-      <c r="GS11" s="2"/>
-      <c r="GT11" s="2"/>
-      <c r="GU11" s="2"/>
-      <c r="GV11" s="2"/>
-      <c r="GW11" s="2"/>
-      <c r="GX11" s="2"/>
-      <c r="GY11" s="2"/>
-      <c r="GZ11" s="2"/>
-      <c r="HA11" s="2"/>
-      <c r="HB11" s="2"/>
-      <c r="HC11" s="2"/>
-      <c r="HD11" s="2"/>
-      <c r="HE11" s="2"/>
-      <c r="HF11" s="2"/>
-      <c r="HG11" s="2"/>
-      <c r="HH11" s="2"/>
-      <c r="HI11" s="2"/>
-      <c r="HJ11" s="2"/>
-      <c r="HK11" s="2"/>
-      <c r="HL11" s="2"/>
-      <c r="HM11" s="2"/>
-      <c r="HN11" s="2"/>
-      <c r="HO11" s="2"/>
-      <c r="HP11" s="2"/>
-      <c r="HQ11" s="2"/>
-      <c r="HR11" s="2"/>
-      <c r="HS11" s="2"/>
-      <c r="HT11" s="2"/>
-      <c r="HU11" s="2"/>
-      <c r="HV11" s="2"/>
-      <c r="HW11" s="2"/>
-      <c r="HX11" s="2"/>
-      <c r="HY11" s="2"/>
-      <c r="HZ11" s="2"/>
-      <c r="IA11" s="2"/>
-      <c r="IB11" s="2"/>
-      <c r="IC11" s="2"/>
-      <c r="ID11" s="2"/>
-      <c r="IE11" s="2"/>
-      <c r="IF11" s="2"/>
-      <c r="IG11" s="2"/>
-      <c r="IH11" s="2"/>
-      <c r="II11" s="2"/>
-      <c r="IJ11" s="2"/>
-      <c r="IK11" s="2"/>
-      <c r="IL11" s="2"/>
-      <c r="IM11" s="2"/>
-      <c r="IN11" s="2"/>
-      <c r="IO11" s="2"/>
-      <c r="IP11" s="2"/>
-      <c r="IQ11" s="2"/>
-      <c r="IR11" s="2"/>
-      <c r="IS11" s="2"/>
-      <c r="IT11" s="2"/>
-      <c r="IU11" s="2"/>
-      <c r="IV11" s="2"/>
-      <c r="IW11" s="2"/>
-      <c r="IX11" s="2"/>
-      <c r="IY11" s="2"/>
-      <c r="IZ11" s="2"/>
-      <c r="JA11" s="2"/>
-      <c r="JB11" s="2"/>
-      <c r="JC11" s="2"/>
-      <c r="JD11" s="2"/>
-      <c r="JE11" s="2"/>
-      <c r="JF11" s="2"/>
     </row>
-    <row r="12" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -6638,169 +4747,14 @@
       <c r="DE12" s="1">
         <v>0</v>
       </c>
-      <c r="DF12" s="3">
+      <c r="DF12" s="2">
         <v>0</v>
       </c>
       <c r="DG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="2"/>
-      <c r="DI12" s="2"/>
-      <c r="DJ12" s="2"/>
-      <c r="DK12" s="2"/>
-      <c r="DL12" s="2"/>
-      <c r="DM12" s="2"/>
-      <c r="DN12" s="2"/>
-      <c r="DO12" s="2"/>
-      <c r="DP12" s="2"/>
-      <c r="DQ12" s="2"/>
-      <c r="DR12" s="2"/>
-      <c r="DS12" s="2"/>
-      <c r="DT12" s="2"/>
-      <c r="DU12" s="2"/>
-      <c r="DV12" s="2"/>
-      <c r="DW12" s="2"/>
-      <c r="DX12" s="2"/>
-      <c r="DY12" s="2"/>
-      <c r="DZ12" s="2"/>
-      <c r="EA12" s="2"/>
-      <c r="EB12" s="2"/>
-      <c r="EC12" s="2"/>
-      <c r="ED12" s="2"/>
-      <c r="EE12" s="2"/>
-      <c r="EF12" s="2"/>
-      <c r="EG12" s="2"/>
-      <c r="EH12" s="2"/>
-      <c r="EI12" s="2"/>
-      <c r="EJ12" s="2"/>
-      <c r="EK12" s="2"/>
-      <c r="EL12" s="2"/>
-      <c r="EM12" s="2"/>
-      <c r="EN12" s="2"/>
-      <c r="EO12" s="2"/>
-      <c r="EP12" s="2"/>
-      <c r="EQ12" s="2"/>
-      <c r="ER12" s="2"/>
-      <c r="ES12" s="2"/>
-      <c r="ET12" s="2"/>
-      <c r="EU12" s="2"/>
-      <c r="EV12" s="2"/>
-      <c r="EW12" s="2"/>
-      <c r="EX12" s="2"/>
-      <c r="EY12" s="2"/>
-      <c r="EZ12" s="2"/>
-      <c r="FA12" s="2"/>
-      <c r="FB12" s="2"/>
-      <c r="FC12" s="2"/>
-      <c r="FD12" s="2"/>
-      <c r="FE12" s="2"/>
-      <c r="FF12" s="2"/>
-      <c r="FG12" s="2"/>
-      <c r="FH12" s="2"/>
-      <c r="FI12" s="2"/>
-      <c r="FJ12" s="2"/>
-      <c r="FK12" s="2"/>
-      <c r="FL12" s="2"/>
-      <c r="FM12" s="2"/>
-      <c r="FN12" s="2"/>
-      <c r="FO12" s="2"/>
-      <c r="FP12" s="2"/>
-      <c r="FQ12" s="2"/>
-      <c r="FR12" s="2"/>
-      <c r="FS12" s="2"/>
-      <c r="FT12" s="2"/>
-      <c r="FU12" s="2"/>
-      <c r="FV12" s="2"/>
-      <c r="FW12" s="2"/>
-      <c r="FX12" s="2"/>
-      <c r="FY12" s="2"/>
-      <c r="FZ12" s="2"/>
-      <c r="GA12" s="2"/>
-      <c r="GB12" s="2"/>
-      <c r="GC12" s="2"/>
-      <c r="GD12" s="2"/>
-      <c r="GE12" s="2"/>
-      <c r="GF12" s="2"/>
-      <c r="GG12" s="2"/>
-      <c r="GH12" s="2"/>
-      <c r="GI12" s="2"/>
-      <c r="GJ12" s="2"/>
-      <c r="GK12" s="2"/>
-      <c r="GL12" s="2"/>
-      <c r="GM12" s="2"/>
-      <c r="GN12" s="2"/>
-      <c r="GO12" s="2"/>
-      <c r="GP12" s="2"/>
-      <c r="GQ12" s="2"/>
-      <c r="GR12" s="2"/>
-      <c r="GS12" s="2"/>
-      <c r="GT12" s="2"/>
-      <c r="GU12" s="2"/>
-      <c r="GV12" s="2"/>
-      <c r="GW12" s="2"/>
-      <c r="GX12" s="2"/>
-      <c r="GY12" s="2"/>
-      <c r="GZ12" s="2"/>
-      <c r="HA12" s="2"/>
-      <c r="HB12" s="2"/>
-      <c r="HC12" s="2"/>
-      <c r="HD12" s="2"/>
-      <c r="HE12" s="2"/>
-      <c r="HF12" s="2"/>
-      <c r="HG12" s="2"/>
-      <c r="HH12" s="2"/>
-      <c r="HI12" s="2"/>
-      <c r="HJ12" s="2"/>
-      <c r="HK12" s="2"/>
-      <c r="HL12" s="2"/>
-      <c r="HM12" s="2"/>
-      <c r="HN12" s="2"/>
-      <c r="HO12" s="2"/>
-      <c r="HP12" s="2"/>
-      <c r="HQ12" s="2"/>
-      <c r="HR12" s="2"/>
-      <c r="HS12" s="2"/>
-      <c r="HT12" s="2"/>
-      <c r="HU12" s="2"/>
-      <c r="HV12" s="2"/>
-      <c r="HW12" s="2"/>
-      <c r="HX12" s="2"/>
-      <c r="HY12" s="2"/>
-      <c r="HZ12" s="2"/>
-      <c r="IA12" s="2"/>
-      <c r="IB12" s="2"/>
-      <c r="IC12" s="2"/>
-      <c r="ID12" s="2"/>
-      <c r="IE12" s="2"/>
-      <c r="IF12" s="2"/>
-      <c r="IG12" s="2"/>
-      <c r="IH12" s="2"/>
-      <c r="II12" s="2"/>
-      <c r="IJ12" s="2"/>
-      <c r="IK12" s="2"/>
-      <c r="IL12" s="2"/>
-      <c r="IM12" s="2"/>
-      <c r="IN12" s="2"/>
-      <c r="IO12" s="2"/>
-      <c r="IP12" s="2"/>
-      <c r="IQ12" s="2"/>
-      <c r="IR12" s="2"/>
-      <c r="IS12" s="2"/>
-      <c r="IT12" s="2"/>
-      <c r="IU12" s="2"/>
-      <c r="IV12" s="2"/>
-      <c r="IW12" s="2"/>
-      <c r="IX12" s="2"/>
-      <c r="IY12" s="2"/>
-      <c r="IZ12" s="2"/>
-      <c r="JA12" s="2"/>
-      <c r="JB12" s="2"/>
-      <c r="JC12" s="2"/>
-      <c r="JD12" s="2"/>
-      <c r="JE12" s="2"/>
-      <c r="JF12" s="2"/>
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -7128,169 +5082,14 @@
       <c r="DE13" s="1">
         <v>0</v>
       </c>
-      <c r="DF13" s="3">
+      <c r="DF13" s="2">
         <v>0</v>
       </c>
       <c r="DG13" s="1">
         <v>0</v>
       </c>
-      <c r="DH13" s="2"/>
-      <c r="DI13" s="2"/>
-      <c r="DJ13" s="2"/>
-      <c r="DK13" s="2"/>
-      <c r="DL13" s="2"/>
-      <c r="DM13" s="2"/>
-      <c r="DN13" s="2"/>
-      <c r="DO13" s="2"/>
-      <c r="DP13" s="2"/>
-      <c r="DQ13" s="2"/>
-      <c r="DR13" s="2"/>
-      <c r="DS13" s="2"/>
-      <c r="DT13" s="2"/>
-      <c r="DU13" s="2"/>
-      <c r="DV13" s="2"/>
-      <c r="DW13" s="2"/>
-      <c r="DX13" s="2"/>
-      <c r="DY13" s="2"/>
-      <c r="DZ13" s="2"/>
-      <c r="EA13" s="2"/>
-      <c r="EB13" s="2"/>
-      <c r="EC13" s="2"/>
-      <c r="ED13" s="2"/>
-      <c r="EE13" s="2"/>
-      <c r="EF13" s="2"/>
-      <c r="EG13" s="2"/>
-      <c r="EH13" s="2"/>
-      <c r="EI13" s="2"/>
-      <c r="EJ13" s="2"/>
-      <c r="EK13" s="2"/>
-      <c r="EL13" s="2"/>
-      <c r="EM13" s="2"/>
-      <c r="EN13" s="2"/>
-      <c r="EO13" s="2"/>
-      <c r="EP13" s="2"/>
-      <c r="EQ13" s="2"/>
-      <c r="ER13" s="2"/>
-      <c r="ES13" s="2"/>
-      <c r="ET13" s="2"/>
-      <c r="EU13" s="2"/>
-      <c r="EV13" s="2"/>
-      <c r="EW13" s="2"/>
-      <c r="EX13" s="2"/>
-      <c r="EY13" s="2"/>
-      <c r="EZ13" s="2"/>
-      <c r="FA13" s="2"/>
-      <c r="FB13" s="2"/>
-      <c r="FC13" s="2"/>
-      <c r="FD13" s="2"/>
-      <c r="FE13" s="2"/>
-      <c r="FF13" s="2"/>
-      <c r="FG13" s="2"/>
-      <c r="FH13" s="2"/>
-      <c r="FI13" s="2"/>
-      <c r="FJ13" s="2"/>
-      <c r="FK13" s="2"/>
-      <c r="FL13" s="2"/>
-      <c r="FM13" s="2"/>
-      <c r="FN13" s="2"/>
-      <c r="FO13" s="2"/>
-      <c r="FP13" s="2"/>
-      <c r="FQ13" s="2"/>
-      <c r="FR13" s="2"/>
-      <c r="FS13" s="2"/>
-      <c r="FT13" s="2"/>
-      <c r="FU13" s="2"/>
-      <c r="FV13" s="2"/>
-      <c r="FW13" s="2"/>
-      <c r="FX13" s="2"/>
-      <c r="FY13" s="2"/>
-      <c r="FZ13" s="2"/>
-      <c r="GA13" s="2"/>
-      <c r="GB13" s="2"/>
-      <c r="GC13" s="2"/>
-      <c r="GD13" s="2"/>
-      <c r="GE13" s="2"/>
-      <c r="GF13" s="2"/>
-      <c r="GG13" s="2"/>
-      <c r="GH13" s="2"/>
-      <c r="GI13" s="2"/>
-      <c r="GJ13" s="2"/>
-      <c r="GK13" s="2"/>
-      <c r="GL13" s="2"/>
-      <c r="GM13" s="2"/>
-      <c r="GN13" s="2"/>
-      <c r="GO13" s="2"/>
-      <c r="GP13" s="2"/>
-      <c r="GQ13" s="2"/>
-      <c r="GR13" s="2"/>
-      <c r="GS13" s="2"/>
-      <c r="GT13" s="2"/>
-      <c r="GU13" s="2"/>
-      <c r="GV13" s="2"/>
-      <c r="GW13" s="2"/>
-      <c r="GX13" s="2"/>
-      <c r="GY13" s="2"/>
-      <c r="GZ13" s="2"/>
-      <c r="HA13" s="2"/>
-      <c r="HB13" s="2"/>
-      <c r="HC13" s="2"/>
-      <c r="HD13" s="2"/>
-      <c r="HE13" s="2"/>
-      <c r="HF13" s="2"/>
-      <c r="HG13" s="2"/>
-      <c r="HH13" s="2"/>
-      <c r="HI13" s="2"/>
-      <c r="HJ13" s="2"/>
-      <c r="HK13" s="2"/>
-      <c r="HL13" s="2"/>
-      <c r="HM13" s="2"/>
-      <c r="HN13" s="2"/>
-      <c r="HO13" s="2"/>
-      <c r="HP13" s="2"/>
-      <c r="HQ13" s="2"/>
-      <c r="HR13" s="2"/>
-      <c r="HS13" s="2"/>
-      <c r="HT13" s="2"/>
-      <c r="HU13" s="2"/>
-      <c r="HV13" s="2"/>
-      <c r="HW13" s="2"/>
-      <c r="HX13" s="2"/>
-      <c r="HY13" s="2"/>
-      <c r="HZ13" s="2"/>
-      <c r="IA13" s="2"/>
-      <c r="IB13" s="2"/>
-      <c r="IC13" s="2"/>
-      <c r="ID13" s="2"/>
-      <c r="IE13" s="2"/>
-      <c r="IF13" s="2"/>
-      <c r="IG13" s="2"/>
-      <c r="IH13" s="2"/>
-      <c r="II13" s="2"/>
-      <c r="IJ13" s="2"/>
-      <c r="IK13" s="2"/>
-      <c r="IL13" s="2"/>
-      <c r="IM13" s="2"/>
-      <c r="IN13" s="2"/>
-      <c r="IO13" s="2"/>
-      <c r="IP13" s="2"/>
-      <c r="IQ13" s="2"/>
-      <c r="IR13" s="2"/>
-      <c r="IS13" s="2"/>
-      <c r="IT13" s="2"/>
-      <c r="IU13" s="2"/>
-      <c r="IV13" s="2"/>
-      <c r="IW13" s="2"/>
-      <c r="IX13" s="2"/>
-      <c r="IY13" s="2"/>
-      <c r="IZ13" s="2"/>
-      <c r="JA13" s="2"/>
-      <c r="JB13" s="2"/>
-      <c r="JC13" s="2"/>
-      <c r="JD13" s="2"/>
-      <c r="JE13" s="2"/>
-      <c r="JF13" s="2"/>
     </row>
-    <row r="14" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -7618,169 +5417,14 @@
       <c r="DE14" s="1">
         <v>0</v>
       </c>
-      <c r="DF14" s="3">
+      <c r="DF14" s="2">
         <v>0</v>
       </c>
       <c r="DG14" s="1">
         <v>0</v>
       </c>
-      <c r="DH14" s="2"/>
-      <c r="DI14" s="2"/>
-      <c r="DJ14" s="2"/>
-      <c r="DK14" s="2"/>
-      <c r="DL14" s="2"/>
-      <c r="DM14" s="2"/>
-      <c r="DN14" s="2"/>
-      <c r="DO14" s="2"/>
-      <c r="DP14" s="2"/>
-      <c r="DQ14" s="2"/>
-      <c r="DR14" s="2"/>
-      <c r="DS14" s="2"/>
-      <c r="DT14" s="2"/>
-      <c r="DU14" s="2"/>
-      <c r="DV14" s="2"/>
-      <c r="DW14" s="2"/>
-      <c r="DX14" s="2"/>
-      <c r="DY14" s="2"/>
-      <c r="DZ14" s="2"/>
-      <c r="EA14" s="2"/>
-      <c r="EB14" s="2"/>
-      <c r="EC14" s="2"/>
-      <c r="ED14" s="2"/>
-      <c r="EE14" s="2"/>
-      <c r="EF14" s="2"/>
-      <c r="EG14" s="2"/>
-      <c r="EH14" s="2"/>
-      <c r="EI14" s="2"/>
-      <c r="EJ14" s="2"/>
-      <c r="EK14" s="2"/>
-      <c r="EL14" s="2"/>
-      <c r="EM14" s="2"/>
-      <c r="EN14" s="2"/>
-      <c r="EO14" s="2"/>
-      <c r="EP14" s="2"/>
-      <c r="EQ14" s="2"/>
-      <c r="ER14" s="2"/>
-      <c r="ES14" s="2"/>
-      <c r="ET14" s="2"/>
-      <c r="EU14" s="2"/>
-      <c r="EV14" s="2"/>
-      <c r="EW14" s="2"/>
-      <c r="EX14" s="2"/>
-      <c r="EY14" s="2"/>
-      <c r="EZ14" s="2"/>
-      <c r="FA14" s="2"/>
-      <c r="FB14" s="2"/>
-      <c r="FC14" s="2"/>
-      <c r="FD14" s="2"/>
-      <c r="FE14" s="2"/>
-      <c r="FF14" s="2"/>
-      <c r="FG14" s="2"/>
-      <c r="FH14" s="2"/>
-      <c r="FI14" s="2"/>
-      <c r="FJ14" s="2"/>
-      <c r="FK14" s="2"/>
-      <c r="FL14" s="2"/>
-      <c r="FM14" s="2"/>
-      <c r="FN14" s="2"/>
-      <c r="FO14" s="2"/>
-      <c r="FP14" s="2"/>
-      <c r="FQ14" s="2"/>
-      <c r="FR14" s="2"/>
-      <c r="FS14" s="2"/>
-      <c r="FT14" s="2"/>
-      <c r="FU14" s="2"/>
-      <c r="FV14" s="2"/>
-      <c r="FW14" s="2"/>
-      <c r="FX14" s="2"/>
-      <c r="FY14" s="2"/>
-      <c r="FZ14" s="2"/>
-      <c r="GA14" s="2"/>
-      <c r="GB14" s="2"/>
-      <c r="GC14" s="2"/>
-      <c r="GD14" s="2"/>
-      <c r="GE14" s="2"/>
-      <c r="GF14" s="2"/>
-      <c r="GG14" s="2"/>
-      <c r="GH14" s="2"/>
-      <c r="GI14" s="2"/>
-      <c r="GJ14" s="2"/>
-      <c r="GK14" s="2"/>
-      <c r="GL14" s="2"/>
-      <c r="GM14" s="2"/>
-      <c r="GN14" s="2"/>
-      <c r="GO14" s="2"/>
-      <c r="GP14" s="2"/>
-      <c r="GQ14" s="2"/>
-      <c r="GR14" s="2"/>
-      <c r="GS14" s="2"/>
-      <c r="GT14" s="2"/>
-      <c r="GU14" s="2"/>
-      <c r="GV14" s="2"/>
-      <c r="GW14" s="2"/>
-      <c r="GX14" s="2"/>
-      <c r="GY14" s="2"/>
-      <c r="GZ14" s="2"/>
-      <c r="HA14" s="2"/>
-      <c r="HB14" s="2"/>
-      <c r="HC14" s="2"/>
-      <c r="HD14" s="2"/>
-      <c r="HE14" s="2"/>
-      <c r="HF14" s="2"/>
-      <c r="HG14" s="2"/>
-      <c r="HH14" s="2"/>
-      <c r="HI14" s="2"/>
-      <c r="HJ14" s="2"/>
-      <c r="HK14" s="2"/>
-      <c r="HL14" s="2"/>
-      <c r="HM14" s="2"/>
-      <c r="HN14" s="2"/>
-      <c r="HO14" s="2"/>
-      <c r="HP14" s="2"/>
-      <c r="HQ14" s="2"/>
-      <c r="HR14" s="2"/>
-      <c r="HS14" s="2"/>
-      <c r="HT14" s="2"/>
-      <c r="HU14" s="2"/>
-      <c r="HV14" s="2"/>
-      <c r="HW14" s="2"/>
-      <c r="HX14" s="2"/>
-      <c r="HY14" s="2"/>
-      <c r="HZ14" s="2"/>
-      <c r="IA14" s="2"/>
-      <c r="IB14" s="2"/>
-      <c r="IC14" s="2"/>
-      <c r="ID14" s="2"/>
-      <c r="IE14" s="2"/>
-      <c r="IF14" s="2"/>
-      <c r="IG14" s="2"/>
-      <c r="IH14" s="2"/>
-      <c r="II14" s="2"/>
-      <c r="IJ14" s="2"/>
-      <c r="IK14" s="2"/>
-      <c r="IL14" s="2"/>
-      <c r="IM14" s="2"/>
-      <c r="IN14" s="2"/>
-      <c r="IO14" s="2"/>
-      <c r="IP14" s="2"/>
-      <c r="IQ14" s="2"/>
-      <c r="IR14" s="2"/>
-      <c r="IS14" s="2"/>
-      <c r="IT14" s="2"/>
-      <c r="IU14" s="2"/>
-      <c r="IV14" s="2"/>
-      <c r="IW14" s="2"/>
-      <c r="IX14" s="2"/>
-      <c r="IY14" s="2"/>
-      <c r="IZ14" s="2"/>
-      <c r="JA14" s="2"/>
-      <c r="JB14" s="2"/>
-      <c r="JC14" s="2"/>
-      <c r="JD14" s="2"/>
-      <c r="JE14" s="2"/>
-      <c r="JF14" s="2"/>
     </row>
-    <row r="15" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -8108,169 +5752,14 @@
       <c r="DE15" s="1">
         <v>0</v>
       </c>
-      <c r="DF15" s="3">
+      <c r="DF15" s="2">
         <v>0</v>
       </c>
       <c r="DG15" s="1">
         <v>0</v>
       </c>
-      <c r="DH15" s="2"/>
-      <c r="DI15" s="2"/>
-      <c r="DJ15" s="2"/>
-      <c r="DK15" s="2"/>
-      <c r="DL15" s="2"/>
-      <c r="DM15" s="2"/>
-      <c r="DN15" s="2"/>
-      <c r="DO15" s="2"/>
-      <c r="DP15" s="2"/>
-      <c r="DQ15" s="2"/>
-      <c r="DR15" s="2"/>
-      <c r="DS15" s="2"/>
-      <c r="DT15" s="2"/>
-      <c r="DU15" s="2"/>
-      <c r="DV15" s="2"/>
-      <c r="DW15" s="2"/>
-      <c r="DX15" s="2"/>
-      <c r="DY15" s="2"/>
-      <c r="DZ15" s="2"/>
-      <c r="EA15" s="2"/>
-      <c r="EB15" s="2"/>
-      <c r="EC15" s="2"/>
-      <c r="ED15" s="2"/>
-      <c r="EE15" s="2"/>
-      <c r="EF15" s="2"/>
-      <c r="EG15" s="2"/>
-      <c r="EH15" s="2"/>
-      <c r="EI15" s="2"/>
-      <c r="EJ15" s="2"/>
-      <c r="EK15" s="2"/>
-      <c r="EL15" s="2"/>
-      <c r="EM15" s="2"/>
-      <c r="EN15" s="2"/>
-      <c r="EO15" s="2"/>
-      <c r="EP15" s="2"/>
-      <c r="EQ15" s="2"/>
-      <c r="ER15" s="2"/>
-      <c r="ES15" s="2"/>
-      <c r="ET15" s="2"/>
-      <c r="EU15" s="2"/>
-      <c r="EV15" s="2"/>
-      <c r="EW15" s="2"/>
-      <c r="EX15" s="2"/>
-      <c r="EY15" s="2"/>
-      <c r="EZ15" s="2"/>
-      <c r="FA15" s="2"/>
-      <c r="FB15" s="2"/>
-      <c r="FC15" s="2"/>
-      <c r="FD15" s="2"/>
-      <c r="FE15" s="2"/>
-      <c r="FF15" s="2"/>
-      <c r="FG15" s="2"/>
-      <c r="FH15" s="2"/>
-      <c r="FI15" s="2"/>
-      <c r="FJ15" s="2"/>
-      <c r="FK15" s="2"/>
-      <c r="FL15" s="2"/>
-      <c r="FM15" s="2"/>
-      <c r="FN15" s="2"/>
-      <c r="FO15" s="2"/>
-      <c r="FP15" s="2"/>
-      <c r="FQ15" s="2"/>
-      <c r="FR15" s="2"/>
-      <c r="FS15" s="2"/>
-      <c r="FT15" s="2"/>
-      <c r="FU15" s="2"/>
-      <c r="FV15" s="2"/>
-      <c r="FW15" s="2"/>
-      <c r="FX15" s="2"/>
-      <c r="FY15" s="2"/>
-      <c r="FZ15" s="2"/>
-      <c r="GA15" s="2"/>
-      <c r="GB15" s="2"/>
-      <c r="GC15" s="2"/>
-      <c r="GD15" s="2"/>
-      <c r="GE15" s="2"/>
-      <c r="GF15" s="2"/>
-      <c r="GG15" s="2"/>
-      <c r="GH15" s="2"/>
-      <c r="GI15" s="2"/>
-      <c r="GJ15" s="2"/>
-      <c r="GK15" s="2"/>
-      <c r="GL15" s="2"/>
-      <c r="GM15" s="2"/>
-      <c r="GN15" s="2"/>
-      <c r="GO15" s="2"/>
-      <c r="GP15" s="2"/>
-      <c r="GQ15" s="2"/>
-      <c r="GR15" s="2"/>
-      <c r="GS15" s="2"/>
-      <c r="GT15" s="2"/>
-      <c r="GU15" s="2"/>
-      <c r="GV15" s="2"/>
-      <c r="GW15" s="2"/>
-      <c r="GX15" s="2"/>
-      <c r="GY15" s="2"/>
-      <c r="GZ15" s="2"/>
-      <c r="HA15" s="2"/>
-      <c r="HB15" s="2"/>
-      <c r="HC15" s="2"/>
-      <c r="HD15" s="2"/>
-      <c r="HE15" s="2"/>
-      <c r="HF15" s="2"/>
-      <c r="HG15" s="2"/>
-      <c r="HH15" s="2"/>
-      <c r="HI15" s="2"/>
-      <c r="HJ15" s="2"/>
-      <c r="HK15" s="2"/>
-      <c r="HL15" s="2"/>
-      <c r="HM15" s="2"/>
-      <c r="HN15" s="2"/>
-      <c r="HO15" s="2"/>
-      <c r="HP15" s="2"/>
-      <c r="HQ15" s="2"/>
-      <c r="HR15" s="2"/>
-      <c r="HS15" s="2"/>
-      <c r="HT15" s="2"/>
-      <c r="HU15" s="2"/>
-      <c r="HV15" s="2"/>
-      <c r="HW15" s="2"/>
-      <c r="HX15" s="2"/>
-      <c r="HY15" s="2"/>
-      <c r="HZ15" s="2"/>
-      <c r="IA15" s="2"/>
-      <c r="IB15" s="2"/>
-      <c r="IC15" s="2"/>
-      <c r="ID15" s="2"/>
-      <c r="IE15" s="2"/>
-      <c r="IF15" s="2"/>
-      <c r="IG15" s="2"/>
-      <c r="IH15" s="2"/>
-      <c r="II15" s="2"/>
-      <c r="IJ15" s="2"/>
-      <c r="IK15" s="2"/>
-      <c r="IL15" s="2"/>
-      <c r="IM15" s="2"/>
-      <c r="IN15" s="2"/>
-      <c r="IO15" s="2"/>
-      <c r="IP15" s="2"/>
-      <c r="IQ15" s="2"/>
-      <c r="IR15" s="2"/>
-      <c r="IS15" s="2"/>
-      <c r="IT15" s="2"/>
-      <c r="IU15" s="2"/>
-      <c r="IV15" s="2"/>
-      <c r="IW15" s="2"/>
-      <c r="IX15" s="2"/>
-      <c r="IY15" s="2"/>
-      <c r="IZ15" s="2"/>
-      <c r="JA15" s="2"/>
-      <c r="JB15" s="2"/>
-      <c r="JC15" s="2"/>
-      <c r="JD15" s="2"/>
-      <c r="JE15" s="2"/>
-      <c r="JF15" s="2"/>
     </row>
-    <row r="16" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -8598,169 +6087,14 @@
       <c r="DE16" s="1">
         <v>0</v>
       </c>
-      <c r="DF16" s="3">
+      <c r="DF16" s="2">
         <v>0</v>
       </c>
       <c r="DG16" s="1">
         <v>0</v>
       </c>
-      <c r="DH16" s="2"/>
-      <c r="DI16" s="2"/>
-      <c r="DJ16" s="2"/>
-      <c r="DK16" s="2"/>
-      <c r="DL16" s="2"/>
-      <c r="DM16" s="2"/>
-      <c r="DN16" s="2"/>
-      <c r="DO16" s="2"/>
-      <c r="DP16" s="2"/>
-      <c r="DQ16" s="2"/>
-      <c r="DR16" s="2"/>
-      <c r="DS16" s="2"/>
-      <c r="DT16" s="2"/>
-      <c r="DU16" s="2"/>
-      <c r="DV16" s="2"/>
-      <c r="DW16" s="2"/>
-      <c r="DX16" s="2"/>
-      <c r="DY16" s="2"/>
-      <c r="DZ16" s="2"/>
-      <c r="EA16" s="2"/>
-      <c r="EB16" s="2"/>
-      <c r="EC16" s="2"/>
-      <c r="ED16" s="2"/>
-      <c r="EE16" s="2"/>
-      <c r="EF16" s="2"/>
-      <c r="EG16" s="2"/>
-      <c r="EH16" s="2"/>
-      <c r="EI16" s="2"/>
-      <c r="EJ16" s="2"/>
-      <c r="EK16" s="2"/>
-      <c r="EL16" s="2"/>
-      <c r="EM16" s="2"/>
-      <c r="EN16" s="2"/>
-      <c r="EO16" s="2"/>
-      <c r="EP16" s="2"/>
-      <c r="EQ16" s="2"/>
-      <c r="ER16" s="2"/>
-      <c r="ES16" s="2"/>
-      <c r="ET16" s="2"/>
-      <c r="EU16" s="2"/>
-      <c r="EV16" s="2"/>
-      <c r="EW16" s="2"/>
-      <c r="EX16" s="2"/>
-      <c r="EY16" s="2"/>
-      <c r="EZ16" s="2"/>
-      <c r="FA16" s="2"/>
-      <c r="FB16" s="2"/>
-      <c r="FC16" s="2"/>
-      <c r="FD16" s="2"/>
-      <c r="FE16" s="2"/>
-      <c r="FF16" s="2"/>
-      <c r="FG16" s="2"/>
-      <c r="FH16" s="2"/>
-      <c r="FI16" s="2"/>
-      <c r="FJ16" s="2"/>
-      <c r="FK16" s="2"/>
-      <c r="FL16" s="2"/>
-      <c r="FM16" s="2"/>
-      <c r="FN16" s="2"/>
-      <c r="FO16" s="2"/>
-      <c r="FP16" s="2"/>
-      <c r="FQ16" s="2"/>
-      <c r="FR16" s="2"/>
-      <c r="FS16" s="2"/>
-      <c r="FT16" s="2"/>
-      <c r="FU16" s="2"/>
-      <c r="FV16" s="2"/>
-      <c r="FW16" s="2"/>
-      <c r="FX16" s="2"/>
-      <c r="FY16" s="2"/>
-      <c r="FZ16" s="2"/>
-      <c r="GA16" s="2"/>
-      <c r="GB16" s="2"/>
-      <c r="GC16" s="2"/>
-      <c r="GD16" s="2"/>
-      <c r="GE16" s="2"/>
-      <c r="GF16" s="2"/>
-      <c r="GG16" s="2"/>
-      <c r="GH16" s="2"/>
-      <c r="GI16" s="2"/>
-      <c r="GJ16" s="2"/>
-      <c r="GK16" s="2"/>
-      <c r="GL16" s="2"/>
-      <c r="GM16" s="2"/>
-      <c r="GN16" s="2"/>
-      <c r="GO16" s="2"/>
-      <c r="GP16" s="2"/>
-      <c r="GQ16" s="2"/>
-      <c r="GR16" s="2"/>
-      <c r="GS16" s="2"/>
-      <c r="GT16" s="2"/>
-      <c r="GU16" s="2"/>
-      <c r="GV16" s="2"/>
-      <c r="GW16" s="2"/>
-      <c r="GX16" s="2"/>
-      <c r="GY16" s="2"/>
-      <c r="GZ16" s="2"/>
-      <c r="HA16" s="2"/>
-      <c r="HB16" s="2"/>
-      <c r="HC16" s="2"/>
-      <c r="HD16" s="2"/>
-      <c r="HE16" s="2"/>
-      <c r="HF16" s="2"/>
-      <c r="HG16" s="2"/>
-      <c r="HH16" s="2"/>
-      <c r="HI16" s="2"/>
-      <c r="HJ16" s="2"/>
-      <c r="HK16" s="2"/>
-      <c r="HL16" s="2"/>
-      <c r="HM16" s="2"/>
-      <c r="HN16" s="2"/>
-      <c r="HO16" s="2"/>
-      <c r="HP16" s="2"/>
-      <c r="HQ16" s="2"/>
-      <c r="HR16" s="2"/>
-      <c r="HS16" s="2"/>
-      <c r="HT16" s="2"/>
-      <c r="HU16" s="2"/>
-      <c r="HV16" s="2"/>
-      <c r="HW16" s="2"/>
-      <c r="HX16" s="2"/>
-      <c r="HY16" s="2"/>
-      <c r="HZ16" s="2"/>
-      <c r="IA16" s="2"/>
-      <c r="IB16" s="2"/>
-      <c r="IC16" s="2"/>
-      <c r="ID16" s="2"/>
-      <c r="IE16" s="2"/>
-      <c r="IF16" s="2"/>
-      <c r="IG16" s="2"/>
-      <c r="IH16" s="2"/>
-      <c r="II16" s="2"/>
-      <c r="IJ16" s="2"/>
-      <c r="IK16" s="2"/>
-      <c r="IL16" s="2"/>
-      <c r="IM16" s="2"/>
-      <c r="IN16" s="2"/>
-      <c r="IO16" s="2"/>
-      <c r="IP16" s="2"/>
-      <c r="IQ16" s="2"/>
-      <c r="IR16" s="2"/>
-      <c r="IS16" s="2"/>
-      <c r="IT16" s="2"/>
-      <c r="IU16" s="2"/>
-      <c r="IV16" s="2"/>
-      <c r="IW16" s="2"/>
-      <c r="IX16" s="2"/>
-      <c r="IY16" s="2"/>
-      <c r="IZ16" s="2"/>
-      <c r="JA16" s="2"/>
-      <c r="JB16" s="2"/>
-      <c r="JC16" s="2"/>
-      <c r="JD16" s="2"/>
-      <c r="JE16" s="2"/>
-      <c r="JF16" s="2"/>
     </row>
-    <row r="17" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -9088,169 +6422,14 @@
       <c r="DE17" s="1">
         <v>0</v>
       </c>
-      <c r="DF17" s="3">
+      <c r="DF17" s="2">
         <v>0</v>
       </c>
       <c r="DG17" s="1">
         <v>0</v>
       </c>
-      <c r="DH17" s="2"/>
-      <c r="DI17" s="2"/>
-      <c r="DJ17" s="2"/>
-      <c r="DK17" s="2"/>
-      <c r="DL17" s="2"/>
-      <c r="DM17" s="2"/>
-      <c r="DN17" s="2"/>
-      <c r="DO17" s="2"/>
-      <c r="DP17" s="2"/>
-      <c r="DQ17" s="2"/>
-      <c r="DR17" s="2"/>
-      <c r="DS17" s="2"/>
-      <c r="DT17" s="2"/>
-      <c r="DU17" s="2"/>
-      <c r="DV17" s="2"/>
-      <c r="DW17" s="2"/>
-      <c r="DX17" s="2"/>
-      <c r="DY17" s="2"/>
-      <c r="DZ17" s="2"/>
-      <c r="EA17" s="2"/>
-      <c r="EB17" s="2"/>
-      <c r="EC17" s="2"/>
-      <c r="ED17" s="2"/>
-      <c r="EE17" s="2"/>
-      <c r="EF17" s="2"/>
-      <c r="EG17" s="2"/>
-      <c r="EH17" s="2"/>
-      <c r="EI17" s="2"/>
-      <c r="EJ17" s="2"/>
-      <c r="EK17" s="2"/>
-      <c r="EL17" s="2"/>
-      <c r="EM17" s="2"/>
-      <c r="EN17" s="2"/>
-      <c r="EO17" s="2"/>
-      <c r="EP17" s="2"/>
-      <c r="EQ17" s="2"/>
-      <c r="ER17" s="2"/>
-      <c r="ES17" s="2"/>
-      <c r="ET17" s="2"/>
-      <c r="EU17" s="2"/>
-      <c r="EV17" s="2"/>
-      <c r="EW17" s="2"/>
-      <c r="EX17" s="2"/>
-      <c r="EY17" s="2"/>
-      <c r="EZ17" s="2"/>
-      <c r="FA17" s="2"/>
-      <c r="FB17" s="2"/>
-      <c r="FC17" s="2"/>
-      <c r="FD17" s="2"/>
-      <c r="FE17" s="2"/>
-      <c r="FF17" s="2"/>
-      <c r="FG17" s="2"/>
-      <c r="FH17" s="2"/>
-      <c r="FI17" s="2"/>
-      <c r="FJ17" s="2"/>
-      <c r="FK17" s="2"/>
-      <c r="FL17" s="2"/>
-      <c r="FM17" s="2"/>
-      <c r="FN17" s="2"/>
-      <c r="FO17" s="2"/>
-      <c r="FP17" s="2"/>
-      <c r="FQ17" s="2"/>
-      <c r="FR17" s="2"/>
-      <c r="FS17" s="2"/>
-      <c r="FT17" s="2"/>
-      <c r="FU17" s="2"/>
-      <c r="FV17" s="2"/>
-      <c r="FW17" s="2"/>
-      <c r="FX17" s="2"/>
-      <c r="FY17" s="2"/>
-      <c r="FZ17" s="2"/>
-      <c r="GA17" s="2"/>
-      <c r="GB17" s="2"/>
-      <c r="GC17" s="2"/>
-      <c r="GD17" s="2"/>
-      <c r="GE17" s="2"/>
-      <c r="GF17" s="2"/>
-      <c r="GG17" s="2"/>
-      <c r="GH17" s="2"/>
-      <c r="GI17" s="2"/>
-      <c r="GJ17" s="2"/>
-      <c r="GK17" s="2"/>
-      <c r="GL17" s="2"/>
-      <c r="GM17" s="2"/>
-      <c r="GN17" s="2"/>
-      <c r="GO17" s="2"/>
-      <c r="GP17" s="2"/>
-      <c r="GQ17" s="2"/>
-      <c r="GR17" s="2"/>
-      <c r="GS17" s="2"/>
-      <c r="GT17" s="2"/>
-      <c r="GU17" s="2"/>
-      <c r="GV17" s="2"/>
-      <c r="GW17" s="2"/>
-      <c r="GX17" s="2"/>
-      <c r="GY17" s="2"/>
-      <c r="GZ17" s="2"/>
-      <c r="HA17" s="2"/>
-      <c r="HB17" s="2"/>
-      <c r="HC17" s="2"/>
-      <c r="HD17" s="2"/>
-      <c r="HE17" s="2"/>
-      <c r="HF17" s="2"/>
-      <c r="HG17" s="2"/>
-      <c r="HH17" s="2"/>
-      <c r="HI17" s="2"/>
-      <c r="HJ17" s="2"/>
-      <c r="HK17" s="2"/>
-      <c r="HL17" s="2"/>
-      <c r="HM17" s="2"/>
-      <c r="HN17" s="2"/>
-      <c r="HO17" s="2"/>
-      <c r="HP17" s="2"/>
-      <c r="HQ17" s="2"/>
-      <c r="HR17" s="2"/>
-      <c r="HS17" s="2"/>
-      <c r="HT17" s="2"/>
-      <c r="HU17" s="2"/>
-      <c r="HV17" s="2"/>
-      <c r="HW17" s="2"/>
-      <c r="HX17" s="2"/>
-      <c r="HY17" s="2"/>
-      <c r="HZ17" s="2"/>
-      <c r="IA17" s="2"/>
-      <c r="IB17" s="2"/>
-      <c r="IC17" s="2"/>
-      <c r="ID17" s="2"/>
-      <c r="IE17" s="2"/>
-      <c r="IF17" s="2"/>
-      <c r="IG17" s="2"/>
-      <c r="IH17" s="2"/>
-      <c r="II17" s="2"/>
-      <c r="IJ17" s="2"/>
-      <c r="IK17" s="2"/>
-      <c r="IL17" s="2"/>
-      <c r="IM17" s="2"/>
-      <c r="IN17" s="2"/>
-      <c r="IO17" s="2"/>
-      <c r="IP17" s="2"/>
-      <c r="IQ17" s="2"/>
-      <c r="IR17" s="2"/>
-      <c r="IS17" s="2"/>
-      <c r="IT17" s="2"/>
-      <c r="IU17" s="2"/>
-      <c r="IV17" s="2"/>
-      <c r="IW17" s="2"/>
-      <c r="IX17" s="2"/>
-      <c r="IY17" s="2"/>
-      <c r="IZ17" s="2"/>
-      <c r="JA17" s="2"/>
-      <c r="JB17" s="2"/>
-      <c r="JC17" s="2"/>
-      <c r="JD17" s="2"/>
-      <c r="JE17" s="2"/>
-      <c r="JF17" s="2"/>
     </row>
-    <row r="18" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -9368,7 +6547,7 @@
       <c r="AM18" s="1">
         <v>0</v>
       </c>
-      <c r="AN18" s="4">
+      <c r="AN18" s="3">
         <v>0</v>
       </c>
       <c r="AO18" s="1">
@@ -9578,169 +6757,14 @@
       <c r="DE18" s="1">
         <v>0</v>
       </c>
-      <c r="DF18" s="3">
+      <c r="DF18" s="2">
         <v>0</v>
       </c>
       <c r="DG18" s="1">
         <v>0</v>
       </c>
-      <c r="DH18" s="2"/>
-      <c r="DI18" s="2"/>
-      <c r="DJ18" s="2"/>
-      <c r="DK18" s="2"/>
-      <c r="DL18" s="2"/>
-      <c r="DM18" s="2"/>
-      <c r="DN18" s="2"/>
-      <c r="DO18" s="2"/>
-      <c r="DP18" s="2"/>
-      <c r="DQ18" s="2"/>
-      <c r="DR18" s="2"/>
-      <c r="DS18" s="2"/>
-      <c r="DT18" s="2"/>
-      <c r="DU18" s="2"/>
-      <c r="DV18" s="2"/>
-      <c r="DW18" s="2"/>
-      <c r="DX18" s="2"/>
-      <c r="DY18" s="2"/>
-      <c r="DZ18" s="2"/>
-      <c r="EA18" s="2"/>
-      <c r="EB18" s="2"/>
-      <c r="EC18" s="2"/>
-      <c r="ED18" s="2"/>
-      <c r="EE18" s="2"/>
-      <c r="EF18" s="2"/>
-      <c r="EG18" s="2"/>
-      <c r="EH18" s="2"/>
-      <c r="EI18" s="2"/>
-      <c r="EJ18" s="2"/>
-      <c r="EK18" s="2"/>
-      <c r="EL18" s="2"/>
-      <c r="EM18" s="2"/>
-      <c r="EN18" s="2"/>
-      <c r="EO18" s="2"/>
-      <c r="EP18" s="2"/>
-      <c r="EQ18" s="2"/>
-      <c r="ER18" s="2"/>
-      <c r="ES18" s="2"/>
-      <c r="ET18" s="2"/>
-      <c r="EU18" s="2"/>
-      <c r="EV18" s="2"/>
-      <c r="EW18" s="2"/>
-      <c r="EX18" s="2"/>
-      <c r="EY18" s="2"/>
-      <c r="EZ18" s="2"/>
-      <c r="FA18" s="2"/>
-      <c r="FB18" s="2"/>
-      <c r="FC18" s="2"/>
-      <c r="FD18" s="2"/>
-      <c r="FE18" s="2"/>
-      <c r="FF18" s="2"/>
-      <c r="FG18" s="2"/>
-      <c r="FH18" s="2"/>
-      <c r="FI18" s="2"/>
-      <c r="FJ18" s="2"/>
-      <c r="FK18" s="2"/>
-      <c r="FL18" s="2"/>
-      <c r="FM18" s="2"/>
-      <c r="FN18" s="2"/>
-      <c r="FO18" s="2"/>
-      <c r="FP18" s="2"/>
-      <c r="FQ18" s="2"/>
-      <c r="FR18" s="2"/>
-      <c r="FS18" s="2"/>
-      <c r="FT18" s="2"/>
-      <c r="FU18" s="2"/>
-      <c r="FV18" s="2"/>
-      <c r="FW18" s="2"/>
-      <c r="FX18" s="2"/>
-      <c r="FY18" s="2"/>
-      <c r="FZ18" s="2"/>
-      <c r="GA18" s="2"/>
-      <c r="GB18" s="2"/>
-      <c r="GC18" s="2"/>
-      <c r="GD18" s="2"/>
-      <c r="GE18" s="2"/>
-      <c r="GF18" s="2"/>
-      <c r="GG18" s="2"/>
-      <c r="GH18" s="2"/>
-      <c r="GI18" s="2"/>
-      <c r="GJ18" s="2"/>
-      <c r="GK18" s="2"/>
-      <c r="GL18" s="2"/>
-      <c r="GM18" s="2"/>
-      <c r="GN18" s="2"/>
-      <c r="GO18" s="2"/>
-      <c r="GP18" s="2"/>
-      <c r="GQ18" s="2"/>
-      <c r="GR18" s="2"/>
-      <c r="GS18" s="2"/>
-      <c r="GT18" s="2"/>
-      <c r="GU18" s="2"/>
-      <c r="GV18" s="2"/>
-      <c r="GW18" s="2"/>
-      <c r="GX18" s="2"/>
-      <c r="GY18" s="2"/>
-      <c r="GZ18" s="2"/>
-      <c r="HA18" s="2"/>
-      <c r="HB18" s="2"/>
-      <c r="HC18" s="2"/>
-      <c r="HD18" s="2"/>
-      <c r="HE18" s="2"/>
-      <c r="HF18" s="2"/>
-      <c r="HG18" s="2"/>
-      <c r="HH18" s="2"/>
-      <c r="HI18" s="2"/>
-      <c r="HJ18" s="2"/>
-      <c r="HK18" s="2"/>
-      <c r="HL18" s="2"/>
-      <c r="HM18" s="2"/>
-      <c r="HN18" s="2"/>
-      <c r="HO18" s="2"/>
-      <c r="HP18" s="2"/>
-      <c r="HQ18" s="2"/>
-      <c r="HR18" s="2"/>
-      <c r="HS18" s="2"/>
-      <c r="HT18" s="2"/>
-      <c r="HU18" s="2"/>
-      <c r="HV18" s="2"/>
-      <c r="HW18" s="2"/>
-      <c r="HX18" s="2"/>
-      <c r="HY18" s="2"/>
-      <c r="HZ18" s="2"/>
-      <c r="IA18" s="2"/>
-      <c r="IB18" s="2"/>
-      <c r="IC18" s="2"/>
-      <c r="ID18" s="2"/>
-      <c r="IE18" s="2"/>
-      <c r="IF18" s="2"/>
-      <c r="IG18" s="2"/>
-      <c r="IH18" s="2"/>
-      <c r="II18" s="2"/>
-      <c r="IJ18" s="2"/>
-      <c r="IK18" s="2"/>
-      <c r="IL18" s="2"/>
-      <c r="IM18" s="2"/>
-      <c r="IN18" s="2"/>
-      <c r="IO18" s="2"/>
-      <c r="IP18" s="2"/>
-      <c r="IQ18" s="2"/>
-      <c r="IR18" s="2"/>
-      <c r="IS18" s="2"/>
-      <c r="IT18" s="2"/>
-      <c r="IU18" s="2"/>
-      <c r="IV18" s="2"/>
-      <c r="IW18" s="2"/>
-      <c r="IX18" s="2"/>
-      <c r="IY18" s="2"/>
-      <c r="IZ18" s="2"/>
-      <c r="JA18" s="2"/>
-      <c r="JB18" s="2"/>
-      <c r="JC18" s="2"/>
-      <c r="JD18" s="2"/>
-      <c r="JE18" s="2"/>
-      <c r="JF18" s="2"/>
     </row>
-    <row r="19" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -9997,40 +7021,40 @@
         <v>2</v>
       </c>
       <c r="CH19" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI19" s="4">
-        <v>2</v>
-      </c>
-      <c r="CJ19" s="4">
-        <v>2</v>
-      </c>
-      <c r="CK19" s="4">
-        <v>2</v>
-      </c>
-      <c r="CL19" s="4">
-        <v>2</v>
-      </c>
-      <c r="CM19" s="4">
-        <v>2</v>
-      </c>
-      <c r="CN19" s="4">
-        <v>2</v>
-      </c>
-      <c r="CO19" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CI19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="3">
+        <v>0</v>
       </c>
       <c r="CP19" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ19" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CR19" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CS19" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CT19" s="1">
         <v>0</v>
@@ -10066,171 +7090,16 @@
         <v>0</v>
       </c>
       <c r="DE19" s="1">
-        <v>35</v>
-      </c>
-      <c r="DF19" s="3">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="DF19" s="2">
+        <v>0</v>
       </c>
       <c r="DG19" s="1">
-        <v>35</v>
-      </c>
-      <c r="DH19" s="2"/>
-      <c r="DI19" s="2"/>
-      <c r="DJ19" s="2"/>
-      <c r="DK19" s="2"/>
-      <c r="DL19" s="2"/>
-      <c r="DM19" s="2"/>
-      <c r="DN19" s="2"/>
-      <c r="DO19" s="2"/>
-      <c r="DP19" s="2"/>
-      <c r="DQ19" s="2"/>
-      <c r="DR19" s="2"/>
-      <c r="DS19" s="2"/>
-      <c r="DT19" s="2"/>
-      <c r="DU19" s="2"/>
-      <c r="DV19" s="2"/>
-      <c r="DW19" s="2"/>
-      <c r="DX19" s="2"/>
-      <c r="DY19" s="2"/>
-      <c r="DZ19" s="2"/>
-      <c r="EA19" s="2"/>
-      <c r="EB19" s="2"/>
-      <c r="EC19" s="2"/>
-      <c r="ED19" s="2"/>
-      <c r="EE19" s="2"/>
-      <c r="EF19" s="2"/>
-      <c r="EG19" s="2"/>
-      <c r="EH19" s="2"/>
-      <c r="EI19" s="2"/>
-      <c r="EJ19" s="2"/>
-      <c r="EK19" s="2"/>
-      <c r="EL19" s="2"/>
-      <c r="EM19" s="2"/>
-      <c r="EN19" s="2"/>
-      <c r="EO19" s="2"/>
-      <c r="EP19" s="2"/>
-      <c r="EQ19" s="2"/>
-      <c r="ER19" s="2"/>
-      <c r="ES19" s="2"/>
-      <c r="ET19" s="2"/>
-      <c r="EU19" s="2"/>
-      <c r="EV19" s="2"/>
-      <c r="EW19" s="2"/>
-      <c r="EX19" s="2"/>
-      <c r="EY19" s="2"/>
-      <c r="EZ19" s="2"/>
-      <c r="FA19" s="2"/>
-      <c r="FB19" s="2"/>
-      <c r="FC19" s="2"/>
-      <c r="FD19" s="2"/>
-      <c r="FE19" s="2"/>
-      <c r="FF19" s="2"/>
-      <c r="FG19" s="2"/>
-      <c r="FH19" s="2"/>
-      <c r="FI19" s="2"/>
-      <c r="FJ19" s="2"/>
-      <c r="FK19" s="2"/>
-      <c r="FL19" s="2"/>
-      <c r="FM19" s="2"/>
-      <c r="FN19" s="2"/>
-      <c r="FO19" s="2"/>
-      <c r="FP19" s="2"/>
-      <c r="FQ19" s="2"/>
-      <c r="FR19" s="2"/>
-      <c r="FS19" s="2"/>
-      <c r="FT19" s="2"/>
-      <c r="FU19" s="2"/>
-      <c r="FV19" s="2"/>
-      <c r="FW19" s="2"/>
-      <c r="FX19" s="2"/>
-      <c r="FY19" s="2"/>
-      <c r="FZ19" s="2"/>
-      <c r="GA19" s="2"/>
-      <c r="GB19" s="2"/>
-      <c r="GC19" s="2"/>
-      <c r="GD19" s="2"/>
-      <c r="GE19" s="2"/>
-      <c r="GF19" s="2"/>
-      <c r="GG19" s="2"/>
-      <c r="GH19" s="2"/>
-      <c r="GI19" s="2"/>
-      <c r="GJ19" s="2"/>
-      <c r="GK19" s="2"/>
-      <c r="GL19" s="2"/>
-      <c r="GM19" s="2"/>
-      <c r="GN19" s="2"/>
-      <c r="GO19" s="2"/>
-      <c r="GP19" s="2"/>
-      <c r="GQ19" s="2"/>
-      <c r="GR19" s="2"/>
-      <c r="GS19" s="2"/>
-      <c r="GT19" s="2"/>
-      <c r="GU19" s="2"/>
-      <c r="GV19" s="2"/>
-      <c r="GW19" s="2"/>
-      <c r="GX19" s="2"/>
-      <c r="GY19" s="2"/>
-      <c r="GZ19" s="2"/>
-      <c r="HA19" s="2"/>
-      <c r="HB19" s="2"/>
-      <c r="HC19" s="2"/>
-      <c r="HD19" s="2"/>
-      <c r="HE19" s="2"/>
-      <c r="HF19" s="2"/>
-      <c r="HG19" s="2"/>
-      <c r="HH19" s="2"/>
-      <c r="HI19" s="2"/>
-      <c r="HJ19" s="2"/>
-      <c r="HK19" s="2"/>
-      <c r="HL19" s="2"/>
-      <c r="HM19" s="2"/>
-      <c r="HN19" s="2"/>
-      <c r="HO19" s="2"/>
-      <c r="HP19" s="2"/>
-      <c r="HQ19" s="2"/>
-      <c r="HR19" s="2"/>
-      <c r="HS19" s="2"/>
-      <c r="HT19" s="2"/>
-      <c r="HU19" s="2"/>
-      <c r="HV19" s="2"/>
-      <c r="HW19" s="2"/>
-      <c r="HX19" s="2"/>
-      <c r="HY19" s="2"/>
-      <c r="HZ19" s="2"/>
-      <c r="IA19" s="2"/>
-      <c r="IB19" s="2"/>
-      <c r="IC19" s="2"/>
-      <c r="ID19" s="2"/>
-      <c r="IE19" s="2"/>
-      <c r="IF19" s="2"/>
-      <c r="IG19" s="2"/>
-      <c r="IH19" s="2"/>
-      <c r="II19" s="2"/>
-      <c r="IJ19" s="2"/>
-      <c r="IK19" s="2"/>
-      <c r="IL19" s="2"/>
-      <c r="IM19" s="2"/>
-      <c r="IN19" s="2"/>
-      <c r="IO19" s="2"/>
-      <c r="IP19" s="2"/>
-      <c r="IQ19" s="2"/>
-      <c r="IR19" s="2"/>
-      <c r="IS19" s="2"/>
-      <c r="IT19" s="2"/>
-      <c r="IU19" s="2"/>
-      <c r="IV19" s="2"/>
-      <c r="IW19" s="2"/>
-      <c r="IX19" s="2"/>
-      <c r="IY19" s="2"/>
-      <c r="IZ19" s="2"/>
-      <c r="JA19" s="2"/>
-      <c r="JB19" s="2"/>
-      <c r="JC19" s="2"/>
-      <c r="JD19" s="2"/>
-      <c r="JE19" s="2"/>
-      <c r="JF19" s="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -10487,31 +7356,31 @@
         <v>0</v>
       </c>
       <c r="CH20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CI20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP20" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ20" s="1">
         <v>0</v>
@@ -10523,694 +7392,384 @@
         <v>0</v>
       </c>
       <c r="CT20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY20" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ20" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="DG20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:111" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="1">
         <v>35</v>
       </c>
-      <c r="CU20" s="1">
+      <c r="CR21" s="1">
         <v>35</v>
       </c>
-      <c r="CV20" s="1">
+      <c r="CS21" s="1">
         <v>35</v>
       </c>
-      <c r="CW20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY20" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB20" s="1">
+      <c r="CT21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE21" s="1">
         <v>35</v>
       </c>
-      <c r="DC20" s="1">
+      <c r="DF21" s="2">
         <v>35</v>
       </c>
-      <c r="DD20" s="1">
+      <c r="DG21" s="1">
         <v>35</v>
       </c>
-      <c r="DE20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF20" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG20" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH20" s="2"/>
-      <c r="DI20" s="2"/>
-      <c r="DJ20" s="2"/>
-      <c r="DK20" s="2"/>
-      <c r="DL20" s="2"/>
-      <c r="DM20" s="2"/>
-      <c r="DN20" s="2"/>
-      <c r="DO20" s="2"/>
-      <c r="DP20" s="2"/>
-      <c r="DQ20" s="2"/>
-      <c r="DR20" s="2"/>
-      <c r="DS20" s="2"/>
-      <c r="DT20" s="2"/>
-      <c r="DU20" s="2"/>
-      <c r="DV20" s="2"/>
-      <c r="DW20" s="2"/>
-      <c r="DX20" s="2"/>
-      <c r="DY20" s="2"/>
-      <c r="DZ20" s="2"/>
-      <c r="EA20" s="2"/>
-      <c r="EB20" s="2"/>
-      <c r="EC20" s="2"/>
-      <c r="ED20" s="2"/>
-      <c r="EE20" s="2"/>
-      <c r="EF20" s="2"/>
-      <c r="EG20" s="2"/>
-      <c r="EH20" s="2"/>
-      <c r="EI20" s="2"/>
-      <c r="EJ20" s="2"/>
-      <c r="EK20" s="2"/>
-      <c r="EL20" s="2"/>
-      <c r="EM20" s="2"/>
-      <c r="EN20" s="2"/>
-      <c r="EO20" s="2"/>
-      <c r="EP20" s="2"/>
-      <c r="EQ20" s="2"/>
-      <c r="ER20" s="2"/>
-      <c r="ES20" s="2"/>
-      <c r="ET20" s="2"/>
-      <c r="EU20" s="2"/>
-      <c r="EV20" s="2"/>
-      <c r="EW20" s="2"/>
-      <c r="EX20" s="2"/>
-      <c r="EY20" s="2"/>
-      <c r="EZ20" s="2"/>
-      <c r="FA20" s="2"/>
-      <c r="FB20" s="2"/>
-      <c r="FC20" s="2"/>
-      <c r="FD20" s="2"/>
-      <c r="FE20" s="2"/>
-      <c r="FF20" s="2"/>
-      <c r="FG20" s="2"/>
-      <c r="FH20" s="2"/>
-      <c r="FI20" s="2"/>
-      <c r="FJ20" s="2"/>
-      <c r="FK20" s="2"/>
-      <c r="FL20" s="2"/>
-      <c r="FM20" s="2"/>
-      <c r="FN20" s="2"/>
-      <c r="FO20" s="2"/>
-      <c r="FP20" s="2"/>
-      <c r="FQ20" s="2"/>
-      <c r="FR20" s="2"/>
-      <c r="FS20" s="2"/>
-      <c r="FT20" s="2"/>
-      <c r="FU20" s="2"/>
-      <c r="FV20" s="2"/>
-      <c r="FW20" s="2"/>
-      <c r="FX20" s="2"/>
-      <c r="FY20" s="2"/>
-      <c r="FZ20" s="2"/>
-      <c r="GA20" s="2"/>
-      <c r="GB20" s="2"/>
-      <c r="GC20" s="2"/>
-      <c r="GD20" s="2"/>
-      <c r="GE20" s="2"/>
-      <c r="GF20" s="2"/>
-      <c r="GG20" s="2"/>
-      <c r="GH20" s="2"/>
-      <c r="GI20" s="2"/>
-      <c r="GJ20" s="2"/>
-      <c r="GK20" s="2"/>
-      <c r="GL20" s="2"/>
-      <c r="GM20" s="2"/>
-      <c r="GN20" s="2"/>
-      <c r="GO20" s="2"/>
-      <c r="GP20" s="2"/>
-      <c r="GQ20" s="2"/>
-      <c r="GR20" s="2"/>
-      <c r="GS20" s="2"/>
-      <c r="GT20" s="2"/>
-      <c r="GU20" s="2"/>
-      <c r="GV20" s="2"/>
-      <c r="GW20" s="2"/>
-      <c r="GX20" s="2"/>
-      <c r="GY20" s="2"/>
-      <c r="GZ20" s="2"/>
-      <c r="HA20" s="2"/>
-      <c r="HB20" s="2"/>
-      <c r="HC20" s="2"/>
-      <c r="HD20" s="2"/>
-      <c r="HE20" s="2"/>
-      <c r="HF20" s="2"/>
-      <c r="HG20" s="2"/>
-      <c r="HH20" s="2"/>
-      <c r="HI20" s="2"/>
-      <c r="HJ20" s="2"/>
-      <c r="HK20" s="2"/>
-      <c r="HL20" s="2"/>
-      <c r="HM20" s="2"/>
-      <c r="HN20" s="2"/>
-      <c r="HO20" s="2"/>
-      <c r="HP20" s="2"/>
-      <c r="HQ20" s="2"/>
-      <c r="HR20" s="2"/>
-      <c r="HS20" s="2"/>
-      <c r="HT20" s="2"/>
-      <c r="HU20" s="2"/>
-      <c r="HV20" s="2"/>
-      <c r="HW20" s="2"/>
-      <c r="HX20" s="2"/>
-      <c r="HY20" s="2"/>
-      <c r="HZ20" s="2"/>
-      <c r="IA20" s="2"/>
-      <c r="IB20" s="2"/>
-      <c r="IC20" s="2"/>
-      <c r="ID20" s="2"/>
-      <c r="IE20" s="2"/>
-      <c r="IF20" s="2"/>
-      <c r="IG20" s="2"/>
-      <c r="IH20" s="2"/>
-      <c r="II20" s="2"/>
-      <c r="IJ20" s="2"/>
-      <c r="IK20" s="2"/>
-      <c r="IL20" s="2"/>
-      <c r="IM20" s="2"/>
-      <c r="IN20" s="2"/>
-      <c r="IO20" s="2"/>
-      <c r="IP20" s="2"/>
-      <c r="IQ20" s="2"/>
-      <c r="IR20" s="2"/>
-      <c r="IS20" s="2"/>
-      <c r="IT20" s="2"/>
-      <c r="IU20" s="2"/>
-      <c r="IV20" s="2"/>
-      <c r="IW20" s="2"/>
-      <c r="IX20" s="2"/>
-      <c r="IY20" s="2"/>
-      <c r="IZ20" s="2"/>
-      <c r="JA20" s="2"/>
-      <c r="JB20" s="2"/>
-      <c r="JC20" s="2"/>
-      <c r="JD20" s="2"/>
-      <c r="JE20" s="2"/>
-      <c r="JF20" s="2"/>
     </row>
-    <row r="21" spans="1:266" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1">
-        <v>0</v>
-      </c>
-      <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="1">
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY21" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW21" s="1">
-        <v>35</v>
-      </c>
-      <c r="CX21" s="1">
-        <v>35</v>
-      </c>
-      <c r="CY21" s="1">
-        <v>35</v>
-      </c>
-      <c r="CZ21" s="1">
-        <v>35</v>
-      </c>
-      <c r="DA21" s="1">
-        <v>35</v>
-      </c>
-      <c r="DB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD21" s="1">
-        <v>0</v>
-      </c>
-      <c r="DE21" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF21" s="3">
-        <v>0</v>
-      </c>
-      <c r="DG21" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH21" s="2"/>
-      <c r="DI21" s="2"/>
-      <c r="DJ21" s="2"/>
-      <c r="DK21" s="2"/>
-      <c r="DL21" s="2"/>
-      <c r="DM21" s="2"/>
-      <c r="DN21" s="2"/>
-      <c r="DO21" s="2"/>
-      <c r="DP21" s="2"/>
-      <c r="DQ21" s="2"/>
-      <c r="DR21" s="2"/>
-      <c r="DS21" s="2"/>
-      <c r="DT21" s="2"/>
-      <c r="DU21" s="2"/>
-      <c r="DV21" s="2"/>
-      <c r="DW21" s="2"/>
-      <c r="DX21" s="2"/>
-      <c r="DY21" s="2"/>
-      <c r="DZ21" s="2"/>
-      <c r="EA21" s="2"/>
-      <c r="EB21" s="2"/>
-      <c r="EC21" s="2"/>
-      <c r="ED21" s="2"/>
-      <c r="EE21" s="2"/>
-      <c r="EF21" s="2"/>
-      <c r="EG21" s="2"/>
-      <c r="EH21" s="2"/>
-      <c r="EI21" s="2"/>
-      <c r="EJ21" s="2"/>
-      <c r="EK21" s="2"/>
-      <c r="EL21" s="2"/>
-      <c r="EM21" s="2"/>
-      <c r="EN21" s="2"/>
-      <c r="EO21" s="2"/>
-      <c r="EP21" s="2"/>
-      <c r="EQ21" s="2"/>
-      <c r="ER21" s="2"/>
-      <c r="ES21" s="2"/>
-      <c r="ET21" s="2"/>
-      <c r="EU21" s="2"/>
-      <c r="EV21" s="2"/>
-      <c r="EW21" s="2"/>
-      <c r="EX21" s="2"/>
-      <c r="EY21" s="2"/>
-      <c r="EZ21" s="2"/>
-      <c r="FA21" s="2"/>
-      <c r="FB21" s="2"/>
-      <c r="FC21" s="2"/>
-      <c r="FD21" s="2"/>
-      <c r="FE21" s="2"/>
-      <c r="FF21" s="2"/>
-      <c r="FG21" s="2"/>
-      <c r="FH21" s="2"/>
-      <c r="FI21" s="2"/>
-      <c r="FJ21" s="2"/>
-      <c r="FK21" s="2"/>
-      <c r="FL21" s="2"/>
-      <c r="FM21" s="2"/>
-      <c r="FN21" s="2"/>
-      <c r="FO21" s="2"/>
-      <c r="FP21" s="2"/>
-      <c r="FQ21" s="2"/>
-      <c r="FR21" s="2"/>
-      <c r="FS21" s="2"/>
-      <c r="FT21" s="2"/>
-      <c r="FU21" s="2"/>
-      <c r="FV21" s="2"/>
-      <c r="FW21" s="2"/>
-      <c r="FX21" s="2"/>
-      <c r="FY21" s="2"/>
-      <c r="FZ21" s="2"/>
-      <c r="GA21" s="2"/>
-      <c r="GB21" s="2"/>
-      <c r="GC21" s="2"/>
-      <c r="GD21" s="2"/>
-      <c r="GE21" s="2"/>
-      <c r="GF21" s="2"/>
-      <c r="GG21" s="2"/>
-      <c r="GH21" s="2"/>
-      <c r="GI21" s="2"/>
-      <c r="GJ21" s="2"/>
-      <c r="GK21" s="2"/>
-      <c r="GL21" s="2"/>
-      <c r="GM21" s="2"/>
-      <c r="GN21" s="2"/>
-      <c r="GO21" s="2"/>
-      <c r="GP21" s="2"/>
-      <c r="GQ21" s="2"/>
-      <c r="GR21" s="2"/>
-      <c r="GS21" s="2"/>
-      <c r="GT21" s="2"/>
-      <c r="GU21" s="2"/>
-      <c r="GV21" s="2"/>
-      <c r="GW21" s="2"/>
-      <c r="GX21" s="2"/>
-      <c r="GY21" s="2"/>
-      <c r="GZ21" s="2"/>
-      <c r="HA21" s="2"/>
-      <c r="HB21" s="2"/>
-      <c r="HC21" s="2"/>
-      <c r="HD21" s="2"/>
-      <c r="HE21" s="2"/>
-      <c r="HF21" s="2"/>
-      <c r="HG21" s="2"/>
-      <c r="HH21" s="2"/>
-      <c r="HI21" s="2"/>
-      <c r="HJ21" s="2"/>
-      <c r="HK21" s="2"/>
-      <c r="HL21" s="2"/>
-      <c r="HM21" s="2"/>
-      <c r="HN21" s="2"/>
-      <c r="HO21" s="2"/>
-      <c r="HP21" s="2"/>
-      <c r="HQ21" s="2"/>
-      <c r="HR21" s="2"/>
-      <c r="HS21" s="2"/>
-      <c r="HT21" s="2"/>
-      <c r="HU21" s="2"/>
-      <c r="HV21" s="2"/>
-      <c r="HW21" s="2"/>
-      <c r="HX21" s="2"/>
-      <c r="HY21" s="2"/>
-      <c r="HZ21" s="2"/>
-      <c r="IA21" s="2"/>
-      <c r="IB21" s="2"/>
-      <c r="IC21" s="2"/>
-      <c r="ID21" s="2"/>
-      <c r="IE21" s="2"/>
-      <c r="IF21" s="2"/>
-      <c r="IG21" s="2"/>
-      <c r="IH21" s="2"/>
-      <c r="II21" s="2"/>
-      <c r="IJ21" s="2"/>
-      <c r="IK21" s="2"/>
-      <c r="IL21" s="2"/>
-      <c r="IM21" s="2"/>
-      <c r="IN21" s="2"/>
-      <c r="IO21" s="2"/>
-      <c r="IP21" s="2"/>
-      <c r="IQ21" s="2"/>
-      <c r="IR21" s="2"/>
-      <c r="IS21" s="2"/>
-      <c r="IT21" s="2"/>
-      <c r="IU21" s="2"/>
-      <c r="IV21" s="2"/>
-      <c r="IW21" s="2"/>
-      <c r="IX21" s="2"/>
-      <c r="IY21" s="2"/>
-      <c r="IZ21" s="2"/>
-      <c r="JA21" s="2"/>
-      <c r="JB21" s="2"/>
-      <c r="JC21" s="2"/>
-      <c r="JD21" s="2"/>
-      <c r="JE21" s="2"/>
-      <c r="JF21" s="2"/>
-    </row>
-    <row r="22" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -11503,13 +8062,13 @@
         <v>0</v>
       </c>
       <c r="CT22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CU22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CV22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CW22" s="1">
         <v>0</v>
@@ -11527,180 +8086,25 @@
         <v>0</v>
       </c>
       <c r="DB22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="DC22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="DD22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="DE22" s="1">
         <v>0</v>
       </c>
-      <c r="DF22" s="3">
+      <c r="DF22" s="2">
         <v>0</v>
       </c>
       <c r="DG22" s="1">
         <v>0</v>
       </c>
-      <c r="DH22" s="2"/>
-      <c r="DI22" s="2"/>
-      <c r="DJ22" s="2"/>
-      <c r="DK22" s="2"/>
-      <c r="DL22" s="2"/>
-      <c r="DM22" s="2"/>
-      <c r="DN22" s="2"/>
-      <c r="DO22" s="2"/>
-      <c r="DP22" s="2"/>
-      <c r="DQ22" s="2"/>
-      <c r="DR22" s="2"/>
-      <c r="DS22" s="2"/>
-      <c r="DT22" s="2"/>
-      <c r="DU22" s="2"/>
-      <c r="DV22" s="2"/>
-      <c r="DW22" s="2"/>
-      <c r="DX22" s="2"/>
-      <c r="DY22" s="2"/>
-      <c r="DZ22" s="2"/>
-      <c r="EA22" s="2"/>
-      <c r="EB22" s="2"/>
-      <c r="EC22" s="2"/>
-      <c r="ED22" s="2"/>
-      <c r="EE22" s="2"/>
-      <c r="EF22" s="2"/>
-      <c r="EG22" s="2"/>
-      <c r="EH22" s="2"/>
-      <c r="EI22" s="2"/>
-      <c r="EJ22" s="2"/>
-      <c r="EK22" s="2"/>
-      <c r="EL22" s="2"/>
-      <c r="EM22" s="2"/>
-      <c r="EN22" s="2"/>
-      <c r="EO22" s="2"/>
-      <c r="EP22" s="2"/>
-      <c r="EQ22" s="2"/>
-      <c r="ER22" s="2"/>
-      <c r="ES22" s="2"/>
-      <c r="ET22" s="2"/>
-      <c r="EU22" s="2"/>
-      <c r="EV22" s="2"/>
-      <c r="EW22" s="2"/>
-      <c r="EX22" s="2"/>
-      <c r="EY22" s="2"/>
-      <c r="EZ22" s="2"/>
-      <c r="FA22" s="2"/>
-      <c r="FB22" s="2"/>
-      <c r="FC22" s="2"/>
-      <c r="FD22" s="2"/>
-      <c r="FE22" s="2"/>
-      <c r="FF22" s="2"/>
-      <c r="FG22" s="2"/>
-      <c r="FH22" s="2"/>
-      <c r="FI22" s="2"/>
-      <c r="FJ22" s="2"/>
-      <c r="FK22" s="2"/>
-      <c r="FL22" s="2"/>
-      <c r="FM22" s="2"/>
-      <c r="FN22" s="2"/>
-      <c r="FO22" s="2"/>
-      <c r="FP22" s="2"/>
-      <c r="FQ22" s="2"/>
-      <c r="FR22" s="2"/>
-      <c r="FS22" s="2"/>
-      <c r="FT22" s="2"/>
-      <c r="FU22" s="2"/>
-      <c r="FV22" s="2"/>
-      <c r="FW22" s="2"/>
-      <c r="FX22" s="2"/>
-      <c r="FY22" s="2"/>
-      <c r="FZ22" s="2"/>
-      <c r="GA22" s="2"/>
-      <c r="GB22" s="2"/>
-      <c r="GC22" s="2"/>
-      <c r="GD22" s="2"/>
-      <c r="GE22" s="2"/>
-      <c r="GF22" s="2"/>
-      <c r="GG22" s="2"/>
-      <c r="GH22" s="2"/>
-      <c r="GI22" s="2"/>
-      <c r="GJ22" s="2"/>
-      <c r="GK22" s="2"/>
-      <c r="GL22" s="2"/>
-      <c r="GM22" s="2"/>
-      <c r="GN22" s="2"/>
-      <c r="GO22" s="2"/>
-      <c r="GP22" s="2"/>
-      <c r="GQ22" s="2"/>
-      <c r="GR22" s="2"/>
-      <c r="GS22" s="2"/>
-      <c r="GT22" s="2"/>
-      <c r="GU22" s="2"/>
-      <c r="GV22" s="2"/>
-      <c r="GW22" s="2"/>
-      <c r="GX22" s="2"/>
-      <c r="GY22" s="2"/>
-      <c r="GZ22" s="2"/>
-      <c r="HA22" s="2"/>
-      <c r="HB22" s="2"/>
-      <c r="HC22" s="2"/>
-      <c r="HD22" s="2"/>
-      <c r="HE22" s="2"/>
-      <c r="HF22" s="2"/>
-      <c r="HG22" s="2"/>
-      <c r="HH22" s="2"/>
-      <c r="HI22" s="2"/>
-      <c r="HJ22" s="2"/>
-      <c r="HK22" s="2"/>
-      <c r="HL22" s="2"/>
-      <c r="HM22" s="2"/>
-      <c r="HN22" s="2"/>
-      <c r="HO22" s="2"/>
-      <c r="HP22" s="2"/>
-      <c r="HQ22" s="2"/>
-      <c r="HR22" s="2"/>
-      <c r="HS22" s="2"/>
-      <c r="HT22" s="2"/>
-      <c r="HU22" s="2"/>
-      <c r="HV22" s="2"/>
-      <c r="HW22" s="2"/>
-      <c r="HX22" s="2"/>
-      <c r="HY22" s="2"/>
-      <c r="HZ22" s="2"/>
-      <c r="IA22" s="2"/>
-      <c r="IB22" s="2"/>
-      <c r="IC22" s="2"/>
-      <c r="ID22" s="2"/>
-      <c r="IE22" s="2"/>
-      <c r="IF22" s="2"/>
-      <c r="IG22" s="2"/>
-      <c r="IH22" s="2"/>
-      <c r="II22" s="2"/>
-      <c r="IJ22" s="2"/>
-      <c r="IK22" s="2"/>
-      <c r="IL22" s="2"/>
-      <c r="IM22" s="2"/>
-      <c r="IN22" s="2"/>
-      <c r="IO22" s="2"/>
-      <c r="IP22" s="2"/>
-      <c r="IQ22" s="2"/>
-      <c r="IR22" s="2"/>
-      <c r="IS22" s="2"/>
-      <c r="IT22" s="2"/>
-      <c r="IU22" s="2"/>
-      <c r="IV22" s="2"/>
-      <c r="IW22" s="2"/>
-      <c r="IX22" s="2"/>
-      <c r="IY22" s="2"/>
-      <c r="IZ22" s="2"/>
-      <c r="JA22" s="2"/>
-      <c r="JB22" s="2"/>
-      <c r="JC22" s="2"/>
-      <c r="JD22" s="2"/>
-      <c r="JE22" s="2"/>
-      <c r="JF22" s="2"/>
     </row>
-    <row r="23" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -12002,19 +8406,19 @@
         <v>0</v>
       </c>
       <c r="CW23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CX23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CY23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CZ23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="DA23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="DB23" s="1">
         <v>0</v>
@@ -12028,169 +8432,14 @@
       <c r="DE23" s="1">
         <v>0</v>
       </c>
-      <c r="DF23" s="3">
+      <c r="DF23" s="2">
         <v>0</v>
       </c>
       <c r="DG23" s="1">
         <v>0</v>
       </c>
-      <c r="DH23" s="2"/>
-      <c r="DI23" s="2"/>
-      <c r="DJ23" s="2"/>
-      <c r="DK23" s="2"/>
-      <c r="DL23" s="2"/>
-      <c r="DM23" s="2"/>
-      <c r="DN23" s="2"/>
-      <c r="DO23" s="2"/>
-      <c r="DP23" s="2"/>
-      <c r="DQ23" s="2"/>
-      <c r="DR23" s="2"/>
-      <c r="DS23" s="2"/>
-      <c r="DT23" s="2"/>
-      <c r="DU23" s="2"/>
-      <c r="DV23" s="2"/>
-      <c r="DW23" s="2"/>
-      <c r="DX23" s="2"/>
-      <c r="DY23" s="2"/>
-      <c r="DZ23" s="2"/>
-      <c r="EA23" s="2"/>
-      <c r="EB23" s="2"/>
-      <c r="EC23" s="2"/>
-      <c r="ED23" s="2"/>
-      <c r="EE23" s="2"/>
-      <c r="EF23" s="2"/>
-      <c r="EG23" s="2"/>
-      <c r="EH23" s="2"/>
-      <c r="EI23" s="2"/>
-      <c r="EJ23" s="2"/>
-      <c r="EK23" s="2"/>
-      <c r="EL23" s="2"/>
-      <c r="EM23" s="2"/>
-      <c r="EN23" s="2"/>
-      <c r="EO23" s="2"/>
-      <c r="EP23" s="2"/>
-      <c r="EQ23" s="2"/>
-      <c r="ER23" s="2"/>
-      <c r="ES23" s="2"/>
-      <c r="ET23" s="2"/>
-      <c r="EU23" s="2"/>
-      <c r="EV23" s="2"/>
-      <c r="EW23" s="2"/>
-      <c r="EX23" s="2"/>
-      <c r="EY23" s="2"/>
-      <c r="EZ23" s="2"/>
-      <c r="FA23" s="2"/>
-      <c r="FB23" s="2"/>
-      <c r="FC23" s="2"/>
-      <c r="FD23" s="2"/>
-      <c r="FE23" s="2"/>
-      <c r="FF23" s="2"/>
-      <c r="FG23" s="2"/>
-      <c r="FH23" s="2"/>
-      <c r="FI23" s="2"/>
-      <c r="FJ23" s="2"/>
-      <c r="FK23" s="2"/>
-      <c r="FL23" s="2"/>
-      <c r="FM23" s="2"/>
-      <c r="FN23" s="2"/>
-      <c r="FO23" s="2"/>
-      <c r="FP23" s="2"/>
-      <c r="FQ23" s="2"/>
-      <c r="FR23" s="2"/>
-      <c r="FS23" s="2"/>
-      <c r="FT23" s="2"/>
-      <c r="FU23" s="2"/>
-      <c r="FV23" s="2"/>
-      <c r="FW23" s="2"/>
-      <c r="FX23" s="2"/>
-      <c r="FY23" s="2"/>
-      <c r="FZ23" s="2"/>
-      <c r="GA23" s="2"/>
-      <c r="GB23" s="2"/>
-      <c r="GC23" s="2"/>
-      <c r="GD23" s="2"/>
-      <c r="GE23" s="2"/>
-      <c r="GF23" s="2"/>
-      <c r="GG23" s="2"/>
-      <c r="GH23" s="2"/>
-      <c r="GI23" s="2"/>
-      <c r="GJ23" s="2"/>
-      <c r="GK23" s="2"/>
-      <c r="GL23" s="2"/>
-      <c r="GM23" s="2"/>
-      <c r="GN23" s="2"/>
-      <c r="GO23" s="2"/>
-      <c r="GP23" s="2"/>
-      <c r="GQ23" s="2"/>
-      <c r="GR23" s="2"/>
-      <c r="GS23" s="2"/>
-      <c r="GT23" s="2"/>
-      <c r="GU23" s="2"/>
-      <c r="GV23" s="2"/>
-      <c r="GW23" s="2"/>
-      <c r="GX23" s="2"/>
-      <c r="GY23" s="2"/>
-      <c r="GZ23" s="2"/>
-      <c r="HA23" s="2"/>
-      <c r="HB23" s="2"/>
-      <c r="HC23" s="2"/>
-      <c r="HD23" s="2"/>
-      <c r="HE23" s="2"/>
-      <c r="HF23" s="2"/>
-      <c r="HG23" s="2"/>
-      <c r="HH23" s="2"/>
-      <c r="HI23" s="2"/>
-      <c r="HJ23" s="2"/>
-      <c r="HK23" s="2"/>
-      <c r="HL23" s="2"/>
-      <c r="HM23" s="2"/>
-      <c r="HN23" s="2"/>
-      <c r="HO23" s="2"/>
-      <c r="HP23" s="2"/>
-      <c r="HQ23" s="2"/>
-      <c r="HR23" s="2"/>
-      <c r="HS23" s="2"/>
-      <c r="HT23" s="2"/>
-      <c r="HU23" s="2"/>
-      <c r="HV23" s="2"/>
-      <c r="HW23" s="2"/>
-      <c r="HX23" s="2"/>
-      <c r="HY23" s="2"/>
-      <c r="HZ23" s="2"/>
-      <c r="IA23" s="2"/>
-      <c r="IB23" s="2"/>
-      <c r="IC23" s="2"/>
-      <c r="ID23" s="2"/>
-      <c r="IE23" s="2"/>
-      <c r="IF23" s="2"/>
-      <c r="IG23" s="2"/>
-      <c r="IH23" s="2"/>
-      <c r="II23" s="2"/>
-      <c r="IJ23" s="2"/>
-      <c r="IK23" s="2"/>
-      <c r="IL23" s="2"/>
-      <c r="IM23" s="2"/>
-      <c r="IN23" s="2"/>
-      <c r="IO23" s="2"/>
-      <c r="IP23" s="2"/>
-      <c r="IQ23" s="2"/>
-      <c r="IR23" s="2"/>
-      <c r="IS23" s="2"/>
-      <c r="IT23" s="2"/>
-      <c r="IU23" s="2"/>
-      <c r="IV23" s="2"/>
-      <c r="IW23" s="2"/>
-      <c r="IX23" s="2"/>
-      <c r="IY23" s="2"/>
-      <c r="IZ23" s="2"/>
-      <c r="JA23" s="2"/>
-      <c r="JB23" s="2"/>
-      <c r="JC23" s="2"/>
-      <c r="JD23" s="2"/>
-      <c r="JE23" s="2"/>
-      <c r="JF23" s="2"/>
     </row>
-    <row r="24" spans="1:266" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -12518,338 +8767,157 @@
       <c r="DE24" s="1">
         <v>0</v>
       </c>
-      <c r="DF24" s="3">
+      <c r="DF24" s="2">
         <v>0</v>
       </c>
       <c r="DG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="DH24" s="2"/>
-      <c r="DI24" s="2"/>
-      <c r="DJ24" s="2"/>
-      <c r="DK24" s="2"/>
-      <c r="DL24" s="2"/>
-      <c r="DM24" s="2"/>
-      <c r="DN24" s="2"/>
-      <c r="DO24" s="2"/>
-      <c r="DP24" s="2"/>
-      <c r="DQ24" s="2"/>
-      <c r="DR24" s="2"/>
-      <c r="DS24" s="2"/>
-      <c r="DT24" s="2"/>
-      <c r="DU24" s="2"/>
-      <c r="DV24" s="2"/>
-      <c r="DW24" s="2"/>
-      <c r="DX24" s="2"/>
-      <c r="DY24" s="2"/>
-      <c r="DZ24" s="2"/>
-      <c r="EA24" s="2"/>
-      <c r="EB24" s="2"/>
-      <c r="EC24" s="2"/>
-      <c r="ED24" s="2"/>
-      <c r="EE24" s="2"/>
-      <c r="EF24" s="2"/>
-      <c r="EG24" s="2"/>
-      <c r="EH24" s="2"/>
-      <c r="EI24" s="2"/>
-      <c r="EJ24" s="2"/>
-      <c r="EK24" s="2"/>
-      <c r="EL24" s="2"/>
-      <c r="EM24" s="2"/>
-      <c r="EN24" s="2"/>
-      <c r="EO24" s="2"/>
-      <c r="EP24" s="2"/>
-      <c r="EQ24" s="2"/>
-      <c r="ER24" s="2"/>
-      <c r="ES24" s="2"/>
-      <c r="ET24" s="2"/>
-      <c r="EU24" s="2"/>
-      <c r="EV24" s="2"/>
-      <c r="EW24" s="2"/>
-      <c r="EX24" s="2"/>
-      <c r="EY24" s="2"/>
-      <c r="EZ24" s="2"/>
-      <c r="FA24" s="2"/>
-      <c r="FB24" s="2"/>
-      <c r="FC24" s="2"/>
-      <c r="FD24" s="2"/>
-      <c r="FE24" s="2"/>
-      <c r="FF24" s="2"/>
-      <c r="FG24" s="2"/>
-      <c r="FH24" s="2"/>
-      <c r="FI24" s="2"/>
-      <c r="FJ24" s="2"/>
-      <c r="FK24" s="2"/>
-      <c r="FL24" s="2"/>
-      <c r="FM24" s="2"/>
-      <c r="FN24" s="2"/>
-      <c r="FO24" s="2"/>
-      <c r="FP24" s="2"/>
-      <c r="FQ24" s="2"/>
-      <c r="FR24" s="2"/>
-      <c r="FS24" s="2"/>
-      <c r="FT24" s="2"/>
-      <c r="FU24" s="2"/>
-      <c r="FV24" s="2"/>
-      <c r="FW24" s="2"/>
-      <c r="FX24" s="2"/>
-      <c r="FY24" s="2"/>
-      <c r="FZ24" s="2"/>
-      <c r="GA24" s="2"/>
-      <c r="GB24" s="2"/>
-      <c r="GC24" s="2"/>
-      <c r="GD24" s="2"/>
-      <c r="GE24" s="2"/>
-      <c r="GF24" s="2"/>
-      <c r="GG24" s="2"/>
-      <c r="GH24" s="2"/>
-      <c r="GI24" s="2"/>
-      <c r="GJ24" s="2"/>
-      <c r="GK24" s="2"/>
-      <c r="GL24" s="2"/>
-      <c r="GM24" s="2"/>
-      <c r="GN24" s="2"/>
-      <c r="GO24" s="2"/>
-      <c r="GP24" s="2"/>
-      <c r="GQ24" s="2"/>
-      <c r="GR24" s="2"/>
-      <c r="GS24" s="2"/>
-      <c r="GT24" s="2"/>
-      <c r="GU24" s="2"/>
-      <c r="GV24" s="2"/>
-      <c r="GW24" s="2"/>
-      <c r="GX24" s="2"/>
-      <c r="GY24" s="2"/>
-      <c r="GZ24" s="2"/>
-      <c r="HA24" s="2"/>
-      <c r="HB24" s="2"/>
-      <c r="HC24" s="2"/>
-      <c r="HD24" s="2"/>
-      <c r="HE24" s="2"/>
-      <c r="HF24" s="2"/>
-      <c r="HG24" s="2"/>
-      <c r="HH24" s="2"/>
-      <c r="HI24" s="2"/>
-      <c r="HJ24" s="2"/>
-      <c r="HK24" s="2"/>
-      <c r="HL24" s="2"/>
-      <c r="HM24" s="2"/>
-      <c r="HN24" s="2"/>
-      <c r="HO24" s="2"/>
-      <c r="HP24" s="2"/>
-      <c r="HQ24" s="2"/>
-      <c r="HR24" s="2"/>
-      <c r="HS24" s="2"/>
-      <c r="HT24" s="2"/>
-      <c r="HU24" s="2"/>
-      <c r="HV24" s="2"/>
-      <c r="HW24" s="2"/>
-      <c r="HX24" s="2"/>
-      <c r="HY24" s="2"/>
-      <c r="HZ24" s="2"/>
-      <c r="IA24" s="2"/>
-      <c r="IB24" s="2"/>
-      <c r="IC24" s="2"/>
-      <c r="ID24" s="2"/>
-      <c r="IE24" s="2"/>
-      <c r="IF24" s="2"/>
-      <c r="IG24" s="2"/>
-      <c r="IH24" s="2"/>
-      <c r="II24" s="2"/>
-      <c r="IJ24" s="2"/>
-      <c r="IK24" s="2"/>
-      <c r="IL24" s="2"/>
-      <c r="IM24" s="2"/>
-      <c r="IN24" s="2"/>
-      <c r="IO24" s="2"/>
-      <c r="IP24" s="2"/>
-      <c r="IQ24" s="2"/>
-      <c r="IR24" s="2"/>
-      <c r="IS24" s="2"/>
-      <c r="IT24" s="2"/>
-      <c r="IU24" s="2"/>
-      <c r="IV24" s="2"/>
-      <c r="IW24" s="2"/>
-      <c r="IX24" s="2"/>
-      <c r="IY24" s="2"/>
-      <c r="IZ24" s="2"/>
-      <c r="JA24" s="2"/>
-      <c r="JB24" s="2"/>
-      <c r="JC24" s="2"/>
-      <c r="JD24" s="2"/>
-      <c r="JE24" s="2"/>
-      <c r="JF24" s="2"/>
-    </row>
-    <row r="26" spans="1:266" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A25:XFD1048576 A1:AH24 AN1:XFD24">
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
-      <formula>35</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
-      <formula>34</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
-      <formula>33</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
-      <formula>32</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
-      <formula>29</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
-      <formula>28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
-      <formula>27</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
-      <formula>26</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
-      <formula>9</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
-      <formula>11</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="38" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="39" operator="equal">
-      <formula>15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="40" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="41" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
-      <formula>7</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
-      <formula>1</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A1:AH24 AN1:DG24">
     <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>36</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
+      <formula>35</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
+      <formula>34</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
+      <formula>33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+      <formula>32</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>29</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>28</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>27</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>26</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AM24">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13006,13 +9074,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{030C6D24-B238-45E7-94E2-240E6A647A2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1447B2F2-EA61-4C9B-B66E-E89100BF7552}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53AA502B-FF2F-4123-B900-E984DD4A29E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}"/>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DH12" sqref="DH12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ16" s="1">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -8927,6 +8927,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -9058,29 +9073,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9555" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DD8" sqref="DD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="CP11" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CQ11" s="1">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="CX11" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CY11" s="1">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="DG12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.15">
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="CU16" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CV16" s="1">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="DC16" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="DD16" s="1">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="CY17" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CZ17" s="1">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="CP19" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CQ19" s="1">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="DG20" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:111" x14ac:dyDescent="0.15">
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="CX22" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CY22" s="1">
         <v>0</v>

--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9555" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DH12" sqref="DH12"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DC16" sqref="DC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>0</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ16" s="1">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="CU16" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CV16" s="1">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="DC16" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="DD16" s="1">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="CY17" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CZ17" s="1">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="1">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>0</v>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AJ20" s="1">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -7903,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="AS22" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -9074,13 +9074,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stage5ver2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DD8" sqref="DD8"/>
+    <sheetView tabSelected="1" topLeftCell="CQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CZ20" sqref="CZ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8074,10 +8074,10 @@
         <v>0</v>
       </c>
       <c r="CX22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY22" s="1">
         <v>36</v>
-      </c>
-      <c r="CY22" s="1">
-        <v>0</v>
       </c>
       <c r="CZ22" s="1">
         <v>0</v>
@@ -9076,15 +9076,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DC16" sqref="DC16"/>
+    <sheetView tabSelected="1" topLeftCell="CP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CY18" sqref="CY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="CP11" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CQ11" s="1">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="CX11" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="CY11" s="1">
         <v>0</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="DG12" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:111" x14ac:dyDescent="0.15">
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="CP19" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CQ19" s="1">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="DG20" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:111" x14ac:dyDescent="0.15">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="CY22" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CZ22" s="1">
         <v>0</v>

--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CP1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CY18" sqref="CY18"/>
+    <sheetView tabSelected="1" topLeftCell="CW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DC15" sqref="DC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="CU16" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="CV16" s="1">
         <v>0</v>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="DC16" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="DD16" s="1">
         <v>0</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="CY17" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="CZ17" s="1">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="CU18" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CV18" s="1">
         <v>0</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="DC18" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="DD18" s="1">
         <v>0</v>
@@ -7072,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="CY19" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="CZ19" s="1">
         <v>0</v>
@@ -8927,6 +8927,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -9058,22 +9073,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9089,28 +9113,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -120,7 +120,175 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -728,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DC15" sqref="DC15"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU15" sqref="AU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5884,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -5893,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="AS16" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
@@ -6599,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="BE18" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BF18" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BG18" s="1">
         <v>0</v>
@@ -6620,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BM18" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BN18" s="1">
         <v>0</v>
@@ -6934,10 +7102,10 @@
         <v>0</v>
       </c>
       <c r="BE19" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BF19" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BG19" s="1">
         <v>0</v>
@@ -6955,10 +7123,10 @@
         <v>0</v>
       </c>
       <c r="BL19" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BM19" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BN19" s="1">
         <v>0</v>
@@ -7224,7 +7392,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -7233,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="AS20" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>0</v>
@@ -7269,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="BE20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="1">
         <v>0</v>
@@ -7290,10 +7458,10 @@
         <v>0</v>
       </c>
       <c r="BL20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>0</v>
@@ -8564,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ24" s="1">
         <v>0</v>
@@ -8573,7 +8741,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>0</v>
@@ -8777,147 +8945,147 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AH24 AN1:DG24">
-    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
       <formula>36</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="41" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AM24">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -120,175 +120,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="47">
     <dxf>
       <fill>
         <patternFill>
@@ -896,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU15" sqref="AU15"/>
+    <sheetView tabSelected="1" topLeftCell="DA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DA21" sqref="DA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7210,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="CO19" s="3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="CP19" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="CQ19" s="1">
         <v>0</v>
@@ -7548,7 +7380,7 @@
         <v>2</v>
       </c>
       <c r="CP20" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ20" s="1">
         <v>0</v>
@@ -7883,16 +7715,16 @@
         <v>0</v>
       </c>
       <c r="CP21" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CQ21" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CR21" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CS21" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CT21" s="1">
         <v>0</v>
@@ -7931,10 +7763,10 @@
         <v>35</v>
       </c>
       <c r="DF21" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="DG21" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:111" x14ac:dyDescent="0.15">
@@ -8227,16 +8059,16 @@
         <v>0</v>
       </c>
       <c r="CS22" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CT22" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CU22" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CV22" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CW22" s="1">
         <v>0</v>
@@ -8257,10 +8089,10 @@
         <v>35</v>
       </c>
       <c r="DC22" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="DD22" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="DE22" s="1">
         <v>0</v>
@@ -8571,22 +8403,22 @@
         <v>0</v>
       </c>
       <c r="CV23" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CW23" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CX23" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CY23" s="1">
         <v>35</v>
       </c>
       <c r="CZ23" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="DA23" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="DB23" s="1">
         <v>0</v>
@@ -8945,147 +8777,147 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:AH24 AN1:DG24">
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="24" operator="equal">
       <formula>36</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="43" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="45" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AM24">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>35</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>34</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>32</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>29</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>28</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>27</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>26</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="17" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9095,21 +8927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -9241,31 +9058,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9281,4 +9089,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ACG/ACG/stage5ver2.xlsx
+++ b/ACG/ACG/stage5ver2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Source\Repos\teamcreate2\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DA21" sqref="DA21"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AZ18" s="1">
         <v>0</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
@@ -8927,6 +8927,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005096BE5562D4554B8361D9BF7CF6A95E" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="53690d9e60ec430580d408a1230d9cfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e34725f-2876-4866-add2-24804fffc4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85dfe370ac309f0498f5b932bc842d21" ns2:_="">
     <xsd:import namespace="2e34725f-2876-4866-add2-24804fffc4d3"/>
@@ -9058,22 +9073,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04789815-DF5B-42B4-93D0-5FFC20DB5B87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9089,28 +9113,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7147B7B-7423-445E-9AB1-F2A64C8A329F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74835F08-4802-4BA0-AF7E-8CDE9DF933A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2e34725f-2876-4866-add2-24804fffc4d3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>